--- a/Dokumente/Zeitplan.xlsx
+++ b/Dokumente/Zeitplan.xlsx
@@ -762,10 +762,114 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +879,12 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,71 +899,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -863,53 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,10 +1207,10 @@
   <dimension ref="B2:AR60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W33" sqref="W33:AA59"/>
+      <selection pane="bottomRight" activeCell="AO32" sqref="AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
@@ -1223,11 +1223,11 @@
       <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="50"/>
+      <c r="J2" s="35"/>
       <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="56"/>
+      <c r="P2" s="41"/>
       <c r="Q2" t="s">
         <v>39</v>
       </c>
@@ -1235,11 +1235,11 @@
       <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="98"/>
+      <c r="AB2" s="60"/>
       <c r="AC2" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="74"/>
+      <c r="AH2" s="55"/>
       <c r="AI2" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="AC4" s="19"/>
-      <c r="AD4" s="33"/>
+      <c r="AD4" s="24"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -1290,10 +1290,10 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="14"/>
-      <c r="AN4" s="42" t="s">
+      <c r="AN4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="43"/>
+      <c r="AO4" s="96"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
@@ -1355,56 +1355,56 @@
       <c r="V5" s="22">
         <v>22</v>
       </c>
-      <c r="W5" s="65" t="s">
+      <c r="W5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="39">
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="30">
         <v>5</v>
       </c>
-      <c r="AC5" s="40">
+      <c r="AC5" s="31">
         <v>6</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AD5" s="32">
         <v>7</v>
       </c>
-      <c r="AE5" s="68">
+      <c r="AE5" s="49">
         <v>12</v>
       </c>
-      <c r="AF5" s="40">
+      <c r="AF5" s="31">
         <v>13</v>
       </c>
-      <c r="AG5" s="41">
+      <c r="AG5" s="32">
         <v>14</v>
       </c>
-      <c r="AH5" s="68">
+      <c r="AH5" s="49">
         <v>19</v>
       </c>
-      <c r="AI5" s="40">
+      <c r="AI5" s="31">
         <v>20</v>
       </c>
-      <c r="AJ5" s="41">
+      <c r="AJ5" s="32">
         <v>21</v>
       </c>
-      <c r="AK5" s="68">
+      <c r="AK5" s="49">
         <v>26</v>
       </c>
-      <c r="AL5" s="40">
+      <c r="AL5" s="31">
         <v>27</v>
       </c>
-      <c r="AM5" s="41">
+      <c r="AM5" s="32">
         <v>28</v>
       </c>
-      <c r="AN5" s="68">
+      <c r="AN5" s="49">
         <v>3</v>
       </c>
-      <c r="AO5" s="40">
+      <c r="AO5" s="31">
         <v>4</v>
       </c>
-      <c r="AP5" s="41">
+      <c r="AP5" s="32">
         <v>5</v>
       </c>
       <c r="AQ5" s="23"/>
@@ -1412,16 +1412,16 @@
     </row>
     <row r="6" spans="2:44" ht="15.75" customHeight="1" thickTop="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="80" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="6"/>
       <c r="J6" s="2"/>
       <c r="K6" s="11"/>
@@ -1434,15 +1434,15 @@
       <c r="R6" s="2"/>
       <c r="S6" s="11"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="26" t="s">
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="28"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="88"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="11"/>
@@ -1458,16 +1458,16 @@
       <c r="AN6" s="6"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="34"/>
+      <c r="AQ6" s="25"/>
     </row>
     <row r="7" spans="2:44">
       <c r="B7" s="5"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="12"/>
@@ -1480,13 +1480,13 @@
       <c r="R7" s="1"/>
       <c r="S7" s="12"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="29"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="91"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="12"/>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="8" spans="2:44">
       <c r="B8" s="5"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="81" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="50"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="12"/>
       <c r="L8" s="4"/>
       <c r="M8" s="1"/>
@@ -1525,13 +1525,13 @@
       <c r="R8" s="1"/>
       <c r="S8" s="12"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="29"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="91"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="12"/>
@@ -1550,15 +1550,15 @@
     </row>
     <row r="9" spans="2:44">
       <c r="B9" s="5"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="58"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="12"/>
@@ -1568,13 +1568,13 @@
       <c r="R9" s="1"/>
       <c r="S9" s="12"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="29"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="91"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="12"/>
@@ -1593,18 +1593,18 @@
     </row>
     <row r="10" spans="2:44">
       <c r="B10" s="5"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="81" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="98" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="12"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="1"/>
       <c r="N10" s="12"/>
       <c r="O10" s="4"/>
@@ -1613,13 +1613,13 @@
       <c r="R10" s="1"/>
       <c r="S10" s="12"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="29"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="91"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="12"/>
@@ -1638,15 +1638,15 @@
     </row>
     <row r="11" spans="2:44">
       <c r="B11" s="5"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="82"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="12"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="4"/>
       <c r="M11" s="1"/>
       <c r="N11" s="12"/>
@@ -1656,13 +1656,13 @@
       <c r="R11" s="1"/>
       <c r="S11" s="12"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="29"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="91"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="12"/>
@@ -1681,9 +1681,9 @@
     </row>
     <row r="12" spans="2:44">
       <c r="B12" s="5"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="46" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="81" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
@@ -1692,8 +1692,8 @@
       <c r="I12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="50"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="12"/>
       <c r="O12" s="4"/>
       <c r="P12" s="1"/>
@@ -1701,13 +1701,13 @@
       <c r="R12" s="1"/>
       <c r="S12" s="12"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="29"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="91"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="12"/>
@@ -1726,9 +1726,9 @@
     </row>
     <row r="13" spans="2:44">
       <c r="B13" s="5"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="47"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
@@ -1744,13 +1744,13 @@
       <c r="R13" s="1"/>
       <c r="S13" s="12"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="29"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="91"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="12"/>
@@ -1769,33 +1769,33 @@
     </row>
     <row r="14" spans="2:44">
       <c r="B14" s="5"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="81" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="12"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="59"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="4"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="1"/>
       <c r="S14" s="12"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="29"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="91"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="12"/>
@@ -1814,15 +1814,15 @@
     </row>
     <row r="15" spans="2:44">
       <c r="B15" s="5"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="12"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="4"/>
       <c r="M15" s="1"/>
       <c r="N15" s="12"/>
@@ -1832,13 +1832,13 @@
       <c r="R15" s="1"/>
       <c r="S15" s="12"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="29"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="91"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="12"/>
@@ -1857,9 +1857,9 @@
     </row>
     <row r="16" spans="2:44">
       <c r="B16" s="5"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="81" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="98" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4"/>
@@ -1867,8 +1867,8 @@
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="1"/>
       <c r="N16" s="12"/>
       <c r="O16" s="4"/>
@@ -1877,13 +1877,13 @@
       <c r="R16" s="1"/>
       <c r="S16" s="12"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="29"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="91"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="12"/>
@@ -1902,15 +1902,15 @@
     </row>
     <row r="17" spans="2:42">
       <c r="B17" s="5"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="4"/>
       <c r="M17" s="1"/>
       <c r="N17" s="12"/>
@@ -1920,13 +1920,13 @@
       <c r="R17" s="1"/>
       <c r="S17" s="12"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="29"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="91"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="12"/>
@@ -1945,9 +1945,9 @@
     </row>
     <row r="18" spans="2:42">
       <c r="B18" s="5"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="81" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="98" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4"/>
@@ -1955,7 +1955,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="51"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="4"/>
       <c r="M18" s="1"/>
       <c r="N18" s="12"/>
@@ -1965,13 +1965,13 @@
       <c r="R18" s="1"/>
       <c r="S18" s="12"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="29"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="91"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="12"/>
@@ -1990,15 +1990,15 @@
     </row>
     <row r="19" spans="2:42">
       <c r="B19" s="5"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="82"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="12"/>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="4"/>
       <c r="M19" s="1"/>
       <c r="N19" s="12"/>
@@ -2008,13 +2008,13 @@
       <c r="R19" s="1"/>
       <c r="S19" s="12"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="29"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="91"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="12"/>
@@ -2033,9 +2033,9 @@
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="5"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="81" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4"/>
@@ -2043,7 +2043,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="4"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="51"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="4"/>
       <c r="M20" s="1"/>
       <c r="N20" s="12"/>
@@ -2053,13 +2053,13 @@
       <c r="R20" s="1"/>
       <c r="S20" s="12"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="29"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="91"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="12"/>
@@ -2078,15 +2078,15 @@
     </row>
     <row r="21" spans="2:42" ht="15.75" thickBot="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="47"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="12"/>
       <c r="I21" s="4"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="42"/>
       <c r="L21" s="4"/>
       <c r="M21" s="1"/>
       <c r="N21" s="12"/>
@@ -2096,13 +2096,13 @@
       <c r="R21" s="1"/>
       <c r="S21" s="12"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="29"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="91"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="12"/>
@@ -2121,11 +2121,11 @@
     </row>
     <row r="22" spans="2:42" ht="15.75" thickTop="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="44" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="62" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4"/>
@@ -2134,7 +2134,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="52"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="1"/>
       <c r="N22" s="12"/>
       <c r="O22" s="4"/>
@@ -2143,13 +2143,13 @@
       <c r="R22" s="1"/>
       <c r="S22" s="12"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="29"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="91"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="12"/>
@@ -2168,9 +2168,9 @@
     </row>
     <row r="23" spans="2:42">
       <c r="B23" s="5"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="45"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="12"/>
@@ -2186,13 +2186,13 @@
       <c r="R23" s="1"/>
       <c r="S23" s="12"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="29"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="12"/>
@@ -2211,33 +2211,33 @@
     </row>
     <row r="24" spans="2:42">
       <c r="B24" s="5"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="44" t="s">
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="62" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="98"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="60"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="1"/>
       <c r="S24" s="12"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="29"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="91"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="12"/>
@@ -2256,15 +2256,15 @@
     </row>
     <row r="25" spans="2:42">
       <c r="B25" s="5"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="4"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="59"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="4"/>
       <c r="M25" s="1"/>
       <c r="N25" s="12"/>
@@ -2274,13 +2274,13 @@
       <c r="R25" s="1"/>
       <c r="S25" s="12"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="29"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="91"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="12"/>
@@ -2299,9 +2299,9 @@
     </row>
     <row r="26" spans="2:42">
       <c r="B26" s="5"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="44" t="s">
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="62" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
@@ -2310,8 +2310,8 @@
       <c r="I26" s="4"/>
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="50"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="12"/>
       <c r="O26" s="4"/>
       <c r="P26" s="1"/>
@@ -2319,13 +2319,13 @@
       <c r="R26" s="4"/>
       <c r="S26" s="12"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="29"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="91"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="12"/>
@@ -2344,9 +2344,9 @@
     </row>
     <row r="27" spans="2:42" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="45"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="12"/>
@@ -2362,13 +2362,13 @@
       <c r="R27" s="4"/>
       <c r="S27" s="12"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="29"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="12"/>
@@ -2387,33 +2387,33 @@
     </row>
     <row r="28" spans="2:42">
       <c r="B28" s="5"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="44" t="s">
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="1"/>
       <c r="H28" s="12"/>
       <c r="I28" s="4"/>
       <c r="J28" s="1"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="51"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="4"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="1"/>
       <c r="S28" s="12"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="29"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="91"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="12"/>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="29" spans="2:42">
       <c r="B29" s="5"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="49"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
       <c r="I29" s="6"/>
@@ -2450,13 +2450,13 @@
       <c r="R29" s="2"/>
       <c r="S29" s="11"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="29"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="91"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="12"/>
@@ -2475,33 +2475,33 @@
     </row>
     <row r="30" spans="2:42">
       <c r="B30" s="5"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="44" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="48"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="1"/>
       <c r="H30" s="12"/>
       <c r="I30" s="4"/>
       <c r="J30" s="1"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
       <c r="O30" s="4"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="1"/>
       <c r="S30" s="12"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="29"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="91"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="12"/>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="31" spans="2:42" ht="15.75" customHeight="1">
       <c r="B31" s="5"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="48"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="1"/>
       <c r="H31" s="12"/>
       <c r="I31" s="4"/>
@@ -2538,13 +2538,13 @@
       <c r="R31" s="1"/>
       <c r="S31" s="12"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="29"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="91"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="12"/>
@@ -2563,12 +2563,12 @@
     </row>
     <row r="32" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="5"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="44" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="1"/>
       <c r="H32" s="12"/>
       <c r="I32" s="4"/>
@@ -2576,20 +2576,20 @@
       <c r="K32" s="12"/>
       <c r="L32" s="4"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="51"/>
+      <c r="N32" s="36"/>
       <c r="O32" s="4"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="1"/>
       <c r="S32" s="12"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="29"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="91"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="12"/>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="33" spans="2:42" ht="15.75" thickTop="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="12"/>
       <c r="I33" s="4"/>
@@ -2626,15 +2626,15 @@
       <c r="R33" s="1"/>
       <c r="S33" s="12"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="26" t="s">
+      <c r="U33" s="55"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="28"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="88"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="12"/>
@@ -2653,33 +2653,33 @@
     </row>
     <row r="34" spans="2:42">
       <c r="B34" s="5"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="44" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="1"/>
       <c r="H34" s="12"/>
       <c r="I34" s="4"/>
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="59"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="44"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="29"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="91"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="12"/>
@@ -2698,31 +2698,31 @@
     </row>
     <row r="35" spans="2:42">
       <c r="B35" s="5"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="48"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="1"/>
       <c r="H35" s="12"/>
       <c r="I35" s="4"/>
       <c r="J35" s="1"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="59"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="44"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="29"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="91"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="12"/>
@@ -2741,33 +2741,33 @@
     </row>
     <row r="36" spans="2:42">
       <c r="B36" s="5"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="44" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="48"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="1"/>
       <c r="H36" s="12"/>
       <c r="I36" s="4"/>
       <c r="J36" s="1"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="59"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="44"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="29"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="91"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="12"/>
@@ -2786,31 +2786,31 @@
     </row>
     <row r="37" spans="2:42" ht="15.75" thickBot="1">
       <c r="B37" s="5"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="48"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="1"/>
       <c r="H37" s="12"/>
       <c r="I37" s="4"/>
       <c r="J37" s="1"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="59"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="44"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="29"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="91"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="12"/>
@@ -2828,35 +2828,35 @@
       <c r="AP37" s="12"/>
     </row>
     <row r="38" spans="2:42" ht="15.75" thickTop="1">
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="44" t="s">
+      <c r="D38" s="70"/>
+      <c r="E38" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="48"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="1"/>
       <c r="H38" s="12"/>
       <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="59"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="44"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="29"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="91"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="12"/>
@@ -2874,31 +2874,31 @@
       <c r="AP38" s="12"/>
     </row>
     <row r="39" spans="2:42">
-      <c r="C39" s="89"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="45"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="12"/>
       <c r="I39" s="4"/>
       <c r="J39" s="1"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="59"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="44"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="29"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="91"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="12"/>
@@ -2916,33 +2916,33 @@
       <c r="AP39" s="12"/>
     </row>
     <row r="40" spans="2:42">
-      <c r="C40" s="89"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="44" t="s">
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="48"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="1"/>
       <c r="H40" s="12"/>
       <c r="I40" s="4"/>
       <c r="J40" s="1"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="29"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="91"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="12"/>
@@ -2960,10 +2960,10 @@
       <c r="AP40" s="12"/>
     </row>
     <row r="41" spans="2:42">
-      <c r="C41" s="89"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="48"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="1"/>
       <c r="H41" s="12"/>
       <c r="I41" s="4"/>
@@ -2978,13 +2978,13 @@
       <c r="R41" s="1"/>
       <c r="S41" s="12"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="29"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="91"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="12"/>
@@ -3002,12 +3002,12 @@
       <c r="AP41" s="12"/>
     </row>
     <row r="42" spans="2:42">
-      <c r="C42" s="89"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="44" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="48"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="1"/>
       <c r="H42" s="12"/>
       <c r="I42" s="4"/>
@@ -3020,15 +3020,15 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="29"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="91"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="12"/>
@@ -3046,10 +3046,10 @@
       <c r="AP42" s="12"/>
     </row>
     <row r="43" spans="2:42">
-      <c r="C43" s="89"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="48"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="1"/>
       <c r="H43" s="12"/>
       <c r="I43" s="4"/>
@@ -3064,13 +3064,13 @@
       <c r="R43" s="1"/>
       <c r="S43" s="12"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="75"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="29"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="91"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="12"/>
@@ -3088,12 +3088,12 @@
       <c r="AP43" s="12"/>
     </row>
     <row r="44" spans="2:42">
-      <c r="C44" s="89"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="44" t="s">
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="1"/>
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
@@ -3108,15 +3108,15 @@
       <c r="R44" s="1"/>
       <c r="S44" s="12"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="50"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="91"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="35"/>
       <c r="AD44" s="12"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="1"/>
@@ -3132,10 +3132,10 @@
       <c r="AP44" s="12"/>
     </row>
     <row r="45" spans="2:42">
-      <c r="C45" s="89"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="48"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="1"/>
       <c r="H45" s="12"/>
       <c r="I45" s="4"/>
@@ -3150,13 +3150,13 @@
       <c r="R45" s="1"/>
       <c r="S45" s="12"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="29"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="91"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="12"/>
@@ -3174,12 +3174,12 @@
       <c r="AP45" s="12"/>
     </row>
     <row r="46" spans="2:42">
-      <c r="C46" s="89"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="44" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="48"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="1"/>
       <c r="H46" s="12"/>
       <c r="I46" s="4"/>
@@ -3194,22 +3194,22 @@
       <c r="R46" s="1"/>
       <c r="S46" s="12"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="29"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="90"/>
+      <c r="AA46" s="91"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="51"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="50"/>
-      <c r="AJ46" s="69"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="50"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="12"/>
@@ -3218,9 +3218,9 @@
       <c r="AP46" s="12"/>
     </row>
     <row r="47" spans="2:42">
-      <c r="C47" s="89"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="45"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="12"/>
@@ -3236,13 +3236,13 @@
       <c r="R47" s="1"/>
       <c r="S47" s="12"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="75"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="29"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="91"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="12"/>
@@ -3260,12 +3260,12 @@
       <c r="AP47" s="12"/>
     </row>
     <row r="48" spans="2:42">
-      <c r="C48" s="89"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="44" t="s">
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="48"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="1"/>
       <c r="H48" s="12"/>
       <c r="I48" s="4"/>
@@ -3280,22 +3280,22 @@
       <c r="R48" s="1"/>
       <c r="S48" s="12"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="75"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="29"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="90"/>
+      <c r="Y48" s="90"/>
+      <c r="Z48" s="90"/>
+      <c r="AA48" s="91"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="12"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="12"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="50"/>
-      <c r="AJ48" s="51"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="36"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="1"/>
       <c r="AM48" s="12"/>
@@ -3304,9 +3304,9 @@
       <c r="AP48" s="12"/>
     </row>
     <row r="49" spans="3:42">
-      <c r="C49" s="89"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="45"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="12"/>
@@ -3322,13 +3322,13 @@
       <c r="R49" s="1"/>
       <c r="S49" s="12"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="75"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="29"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="90"/>
+      <c r="Z49" s="90"/>
+      <c r="AA49" s="91"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="12"/>
@@ -3346,12 +3346,12 @@
       <c r="AP49" s="12"/>
     </row>
     <row r="50" spans="3:42">
-      <c r="C50" s="89"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="44" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="48"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="1"/>
       <c r="H50" s="12"/>
       <c r="I50" s="4"/>
@@ -3366,13 +3366,13 @@
       <c r="R50" s="1"/>
       <c r="S50" s="12"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="74"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="29"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="90"/>
+      <c r="Y50" s="90"/>
+      <c r="Z50" s="90"/>
+      <c r="AA50" s="91"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="12"/>
@@ -3382,17 +3382,17 @@
       <c r="AH50" s="4"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="12"/>
-      <c r="AK50" s="52"/>
-      <c r="AL50" s="50"/>
-      <c r="AM50" s="51"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="36"/>
       <c r="AN50" s="4"/>
       <c r="AO50" s="1"/>
       <c r="AP50" s="12"/>
     </row>
     <row r="51" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C51" s="90"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="45"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="12"/>
@@ -3408,13 +3408,13 @@
       <c r="R51" s="1"/>
       <c r="S51" s="12"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="74"/>
-      <c r="V51" s="75"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="29"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="90"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="90"/>
+      <c r="AA51" s="91"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="12"/>
@@ -3432,14 +3432,14 @@
       <c r="AP51" s="12"/>
     </row>
     <row r="52" spans="3:42" ht="15.75" thickTop="1">
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="94"/>
-      <c r="E52" s="44" t="s">
+      <c r="D52" s="76"/>
+      <c r="E52" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="48"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="1"/>
       <c r="H52" s="12"/>
       <c r="I52" s="4"/>
@@ -3454,13 +3454,13 @@
       <c r="R52" s="1"/>
       <c r="S52" s="12"/>
       <c r="T52" s="4"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="75"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="29"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="90"/>
+      <c r="Z52" s="90"/>
+      <c r="AA52" s="91"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="12"/>
@@ -3470,17 +3470,17 @@
       <c r="AH52" s="4"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="12"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="50"/>
-      <c r="AM52" s="51"/>
+      <c r="AK52" s="37"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="36"/>
       <c r="AN52" s="4"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="12"/>
     </row>
     <row r="53" spans="3:42">
-      <c r="C53" s="95"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="45"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="12"/>
@@ -3496,13 +3496,13 @@
       <c r="R53" s="1"/>
       <c r="S53" s="12"/>
       <c r="T53" s="4"/>
-      <c r="U53" s="74"/>
-      <c r="V53" s="75"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="29"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="91"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="12"/>
@@ -3520,12 +3520,12 @@
       <c r="AP53" s="12"/>
     </row>
     <row r="54" spans="3:42">
-      <c r="C54" s="95"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="44" t="s">
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="48"/>
+      <c r="F54" s="33"/>
       <c r="G54" s="1"/>
       <c r="H54" s="12"/>
       <c r="I54" s="4"/>
@@ -3540,13 +3540,13 @@
       <c r="R54" s="1"/>
       <c r="S54" s="12"/>
       <c r="T54" s="4"/>
-      <c r="U54" s="74"/>
-      <c r="V54" s="75"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="29"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="90"/>
+      <c r="AA54" s="91"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="12"/>
@@ -3554,19 +3554,19 @@
       <c r="AF54" s="1"/>
       <c r="AG54" s="12"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="50"/>
-      <c r="AJ54" s="51"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="50"/>
-      <c r="AM54" s="69"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="36"/>
+      <c r="AK54" s="37"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="50"/>
       <c r="AN54" s="4"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="12"/>
     </row>
     <row r="55" spans="3:42">
-      <c r="C55" s="95"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="45"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="12"/>
@@ -3582,36 +3582,36 @@
       <c r="R55" s="1"/>
       <c r="S55" s="12"/>
       <c r="T55" s="4"/>
-      <c r="U55" s="74"/>
-      <c r="V55" s="75"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="64"/>
-      <c r="AC55" s="62"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="64"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="64"/>
-      <c r="AI55" s="62"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="64"/>
-      <c r="AL55" s="62"/>
-      <c r="AM55" s="63"/>
-      <c r="AN55" s="64"/>
-      <c r="AO55" s="62"/>
-      <c r="AP55" s="63"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="91"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="48"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="48"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="48"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="47"/>
     </row>
     <row r="56" spans="3:42">
-      <c r="C56" s="95"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="44" t="s">
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="48"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="1"/>
       <c r="H56" s="12"/>
       <c r="I56" s="4"/>
@@ -3626,13 +3626,13 @@
       <c r="R56" s="1"/>
       <c r="S56" s="12"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="74"/>
-      <c r="V56" s="75"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="29"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="90"/>
+      <c r="Y56" s="90"/>
+      <c r="Z56" s="90"/>
+      <c r="AA56" s="91"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="12"/>
@@ -3645,15 +3645,15 @@
       <c r="AK56" s="4"/>
       <c r="AL56" s="1"/>
       <c r="AM56" s="12"/>
-      <c r="AN56" s="52"/>
-      <c r="AO56" s="50"/>
-      <c r="AP56" s="51"/>
+      <c r="AN56" s="37"/>
+      <c r="AO56" s="35"/>
+      <c r="AP56" s="36"/>
     </row>
     <row r="57" spans="3:42">
-      <c r="C57" s="95"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="48"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="1"/>
       <c r="H57" s="12"/>
       <c r="I57" s="4"/>
@@ -3668,13 +3668,13 @@
       <c r="R57" s="1"/>
       <c r="S57" s="12"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="74"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="29"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="89"/>
+      <c r="X57" s="90"/>
+      <c r="Y57" s="90"/>
+      <c r="Z57" s="90"/>
+      <c r="AA57" s="91"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="12"/>
@@ -3692,12 +3692,12 @@
       <c r="AP57" s="12"/>
     </row>
     <row r="58" spans="3:42">
-      <c r="C58" s="95"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="44" t="s">
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="49"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="2"/>
       <c r="H58" s="11"/>
       <c r="I58" s="6"/>
@@ -3712,13 +3712,13 @@
       <c r="R58" s="2"/>
       <c r="S58" s="11"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="72"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="29"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="90"/>
+      <c r="Z58" s="90"/>
+      <c r="AA58" s="91"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="12"/>
@@ -3731,51 +3731,51 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="12"/>
-      <c r="AN58" s="52"/>
-      <c r="AO58" s="50"/>
-      <c r="AP58" s="69"/>
+      <c r="AN58" s="37"/>
+      <c r="AO58" s="35"/>
+      <c r="AP58" s="50"/>
     </row>
     <row r="59" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="77"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="60"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="37"/>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="38"/>
-      <c r="AI59" s="36"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="36"/>
-      <c r="AM59" s="37"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="36"/>
-      <c r="AP59" s="37"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="92"/>
+      <c r="X59" s="93"/>
+      <c r="Y59" s="93"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="94"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="29"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="28"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="28"/>
+      <c r="AN59" s="29"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="28"/>
     </row>
     <row r="60" spans="3:42" ht="15.75" thickTop="1">
       <c r="W60" s="23"/>
@@ -3786,6 +3786,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="W6:AA32"/>
+    <mergeCell ref="W33:AA59"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="E56:E57"/>
@@ -3802,25 +3821,6 @@
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="W6:AA32"/>
-    <mergeCell ref="W33:AA59"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Dokumente/Zeitplan.xlsx
+++ b/Dokumente/Zeitplan.xlsx
@@ -800,11 +800,64 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -856,59 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1210,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AO32" sqref="AO32"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
@@ -1290,10 +1290,10 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="14"/>
-      <c r="AN4" s="95" t="s">
+      <c r="AN4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="96"/>
+      <c r="AO4" s="63"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
@@ -1355,13 +1355,13 @@
       <c r="V5" s="22">
         <v>22</v>
       </c>
-      <c r="W5" s="83" t="s">
+      <c r="W5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="73"/>
       <c r="AB5" s="30">
         <v>5</v>
       </c>
@@ -1412,11 +1412,11 @@
     </row>
     <row r="6" spans="2:44" ht="15.75" customHeight="1" thickTop="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="64" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="52"/>
@@ -1436,13 +1436,13 @@
       <c r="T6" s="6"/>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="86" t="s">
+      <c r="W6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="88"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="76"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="11"/>
@@ -1462,9 +1462,9 @@
     </row>
     <row r="7" spans="2:44">
       <c r="B7" s="5"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41"/>
       <c r="H7" s="42"/>
@@ -1482,11 +1482,11 @@
       <c r="T7" s="4"/>
       <c r="U7" s="55"/>
       <c r="V7" s="56"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="91"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="12"/>
@@ -1505,9 +1505,9 @@
     </row>
     <row r="8" spans="2:44">
       <c r="B8" s="5"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="81" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="70" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4"/>
@@ -1527,11 +1527,11 @@
       <c r="T8" s="4"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="91"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="79"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="12"/>
@@ -1550,9 +1550,9 @@
     </row>
     <row r="9" spans="2:44">
       <c r="B9" s="5"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="82"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="4"/>
       <c r="G9" s="41"/>
       <c r="H9" s="42"/>
@@ -1570,11 +1570,11 @@
       <c r="T9" s="4"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="91"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="12"/>
@@ -1593,9 +1593,9 @@
     </row>
     <row r="10" spans="2:44">
       <c r="B10" s="5"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="98" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="68" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
@@ -1615,11 +1615,11 @@
       <c r="T10" s="4"/>
       <c r="U10" s="55"/>
       <c r="V10" s="56"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="91"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="79"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="12"/>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="11" spans="2:44">
       <c r="B11" s="5"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="99"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="12"/>
       <c r="I11" s="4"/>
       <c r="J11" s="41"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="1"/>
       <c r="N11" s="12"/>
       <c r="O11" s="4"/>
@@ -1658,11 +1658,11 @@
       <c r="T11" s="4"/>
       <c r="U11" s="55"/>
       <c r="V11" s="56"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="91"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="79"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="12"/>
@@ -1681,9 +1681,9 @@
     </row>
     <row r="12" spans="2:44">
       <c r="B12" s="5"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="81" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="70" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
@@ -1703,11 +1703,11 @@
       <c r="T12" s="4"/>
       <c r="U12" s="55"/>
       <c r="V12" s="56"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="91"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="79"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="12"/>
@@ -1726,16 +1726,16 @@
     </row>
     <row r="13" spans="2:44">
       <c r="B13" s="5"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
       <c r="I13" s="4"/>
       <c r="J13" s="1"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="1"/>
       <c r="N13" s="12"/>
       <c r="O13" s="4"/>
@@ -1746,11 +1746,11 @@
       <c r="T13" s="4"/>
       <c r="U13" s="55"/>
       <c r="V13" s="56"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="91"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="79"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="12"/>
@@ -1769,9 +1769,9 @@
     </row>
     <row r="14" spans="2:44">
       <c r="B14" s="5"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="98" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="68" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
@@ -1791,11 +1791,11 @@
       <c r="T14" s="4"/>
       <c r="U14" s="55"/>
       <c r="V14" s="56"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="91"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="79"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="12"/>
@@ -1814,16 +1814,16 @@
     </row>
     <row r="15" spans="2:44">
       <c r="B15" s="5"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="99"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="12"/>
       <c r="I15" s="4"/>
       <c r="J15" s="41"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="1"/>
       <c r="N15" s="12"/>
       <c r="O15" s="4"/>
@@ -1834,11 +1834,11 @@
       <c r="T15" s="4"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="91"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="79"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="12"/>
@@ -1857,9 +1857,9 @@
     </row>
     <row r="16" spans="2:44">
       <c r="B16" s="5"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="98" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="68" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4"/>
@@ -1879,11 +1879,11 @@
       <c r="T16" s="4"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="91"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="79"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="12"/>
@@ -1902,9 +1902,9 @@
     </row>
     <row r="17" spans="2:42">
       <c r="B17" s="5"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="99"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="12"/>
@@ -1922,11 +1922,11 @@
       <c r="T17" s="4"/>
       <c r="U17" s="55"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="91"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="79"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="12"/>
@@ -1945,9 +1945,9 @@
     </row>
     <row r="18" spans="2:42">
       <c r="B18" s="5"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="98" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="68" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4"/>
@@ -1967,11 +1967,11 @@
       <c r="T18" s="4"/>
       <c r="U18" s="55"/>
       <c r="V18" s="56"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="91"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="79"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="12"/>
@@ -1990,9 +1990,9 @@
     </row>
     <row r="19" spans="2:42">
       <c r="B19" s="5"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="99"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="12"/>
@@ -2010,11 +2010,11 @@
       <c r="T19" s="4"/>
       <c r="U19" s="55"/>
       <c r="V19" s="56"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="91"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="79"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="12"/>
@@ -2033,9 +2033,9 @@
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="5"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="81" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="70" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4"/>
@@ -2055,11 +2055,11 @@
       <c r="T20" s="4"/>
       <c r="U20" s="55"/>
       <c r="V20" s="56"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="91"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="79"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="12"/>
@@ -2078,9 +2078,9 @@
     </row>
     <row r="21" spans="2:42" ht="15.75" thickBot="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="82"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="12"/>
@@ -2098,11 +2098,11 @@
       <c r="T21" s="4"/>
       <c r="U21" s="55"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="91"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="79"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="12"/>
@@ -2121,11 +2121,11 @@
     </row>
     <row r="22" spans="2:42" ht="15.75" thickTop="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="62" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="66" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4"/>
@@ -2145,11 +2145,11 @@
       <c r="T22" s="4"/>
       <c r="U22" s="55"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="91"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="79"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="12"/>
@@ -2168,9 +2168,9 @@
     </row>
     <row r="23" spans="2:42">
       <c r="B23" s="5"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="63"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="12"/>
@@ -2188,11 +2188,11 @@
       <c r="T23" s="4"/>
       <c r="U23" s="55"/>
       <c r="V23" s="56"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="91"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="79"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="12"/>
@@ -2211,9 +2211,9 @@
     </row>
     <row r="24" spans="2:42">
       <c r="B24" s="5"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="62" t="s">
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4"/>
@@ -2233,11 +2233,11 @@
       <c r="T24" s="4"/>
       <c r="U24" s="55"/>
       <c r="V24" s="56"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="91"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="79"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="12"/>
@@ -2256,9 +2256,9 @@
     </row>
     <row r="25" spans="2:42">
       <c r="B25" s="5"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="63"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="44"/>
@@ -2276,11 +2276,11 @@
       <c r="T25" s="4"/>
       <c r="U25" s="55"/>
       <c r="V25" s="56"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="91"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="79"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="12"/>
@@ -2299,9 +2299,9 @@
     </row>
     <row r="26" spans="2:42">
       <c r="B26" s="5"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="62" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="66" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
@@ -2321,11 +2321,11 @@
       <c r="T26" s="4"/>
       <c r="U26" s="55"/>
       <c r="V26" s="56"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="91"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="79"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="12"/>
@@ -2344,9 +2344,9 @@
     </row>
     <row r="27" spans="2:42" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="63"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="12"/>
@@ -2364,11 +2364,11 @@
       <c r="T27" s="4"/>
       <c r="U27" s="55"/>
       <c r="V27" s="56"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="79"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="12"/>
@@ -2387,9 +2387,9 @@
     </row>
     <row r="28" spans="2:42">
       <c r="B28" s="5"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="62" t="s">
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="33"/>
@@ -2409,11 +2409,11 @@
       <c r="T28" s="4"/>
       <c r="U28" s="55"/>
       <c r="V28" s="56"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="91"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="79"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="12"/>
@@ -2432,9 +2432,9 @@
     </row>
     <row r="29" spans="2:42">
       <c r="B29" s="5"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="63"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="34"/>
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
@@ -2452,11 +2452,11 @@
       <c r="T29" s="6"/>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="91"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="79"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="12"/>
@@ -2475,9 +2475,9 @@
     </row>
     <row r="30" spans="2:42">
       <c r="B30" s="5"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="62" t="s">
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="66" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="33"/>
@@ -2497,11 +2497,11 @@
       <c r="T30" s="4"/>
       <c r="U30" s="55"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="91"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="79"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="12"/>
@@ -2520,9 +2520,9 @@
     </row>
     <row r="31" spans="2:42" ht="15.75" customHeight="1">
       <c r="B31" s="5"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="63"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="33"/>
       <c r="G31" s="1"/>
       <c r="H31" s="12"/>
@@ -2540,11 +2540,11 @@
       <c r="T31" s="4"/>
       <c r="U31" s="55"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="91"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="79"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="12"/>
@@ -2563,9 +2563,9 @@
     </row>
     <row r="32" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="5"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="62" t="s">
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="66" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="33"/>
@@ -2585,11 +2585,11 @@
       <c r="T32" s="4"/>
       <c r="U32" s="55"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="91"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="79"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="12"/>
@@ -2608,9 +2608,9 @@
     </row>
     <row r="33" spans="2:42" ht="15.75" thickTop="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="63"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="12"/>
@@ -2628,13 +2628,13 @@
       <c r="T33" s="4"/>
       <c r="U33" s="55"/>
       <c r="V33" s="56"/>
-      <c r="W33" s="86" t="s">
+      <c r="W33" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="88"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="76"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="12"/>
@@ -2653,9 +2653,9 @@
     </row>
     <row r="34" spans="2:42">
       <c r="B34" s="5"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="62" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="66" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="33"/>
@@ -2675,11 +2675,11 @@
       <c r="T34" s="4"/>
       <c r="U34" s="55"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="91"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="79"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="12"/>
@@ -2698,9 +2698,9 @@
     </row>
     <row r="35" spans="2:42">
       <c r="B35" s="5"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="63"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="33"/>
       <c r="G35" s="1"/>
       <c r="H35" s="12"/>
@@ -2718,11 +2718,11 @@
       <c r="T35" s="4"/>
       <c r="U35" s="55"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="91"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="79"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="12"/>
@@ -2741,9 +2741,9 @@
     </row>
     <row r="36" spans="2:42">
       <c r="B36" s="5"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="62" t="s">
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="33"/>
@@ -2763,11 +2763,11 @@
       <c r="T36" s="4"/>
       <c r="U36" s="55"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="91"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="79"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="12"/>
@@ -2786,9 +2786,9 @@
     </row>
     <row r="37" spans="2:42" ht="15.75" thickBot="1">
       <c r="B37" s="5"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="63"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="33"/>
       <c r="G37" s="1"/>
       <c r="H37" s="12"/>
@@ -2806,11 +2806,11 @@
       <c r="T37" s="4"/>
       <c r="U37" s="55"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="91"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="79"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="12"/>
@@ -2828,11 +2828,11 @@
       <c r="AP37" s="12"/>
     </row>
     <row r="38" spans="2:42" ht="15.75" thickTop="1">
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="62" t="s">
+      <c r="D38" s="89"/>
+      <c r="E38" s="66" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="33"/>
@@ -2852,11 +2852,11 @@
       <c r="T38" s="4"/>
       <c r="U38" s="55"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="91"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="79"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="12"/>
@@ -2874,9 +2874,9 @@
       <c r="AP38" s="12"/>
     </row>
     <row r="39" spans="2:42">
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="63"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="12"/>
@@ -2894,11 +2894,11 @@
       <c r="T39" s="4"/>
       <c r="U39" s="55"/>
       <c r="V39" s="56"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="90"/>
-      <c r="Y39" s="90"/>
-      <c r="Z39" s="90"/>
-      <c r="AA39" s="91"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="79"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="12"/>
@@ -2916,9 +2916,9 @@
       <c r="AP39" s="12"/>
     </row>
     <row r="40" spans="2:42">
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="62" t="s">
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="66" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="33"/>
@@ -2938,11 +2938,11 @@
       <c r="T40" s="61"/>
       <c r="U40" s="55"/>
       <c r="V40" s="56"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="91"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="79"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="12"/>
@@ -2960,9 +2960,9 @@
       <c r="AP40" s="12"/>
     </row>
     <row r="41" spans="2:42">
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="63"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="33"/>
       <c r="G41" s="1"/>
       <c r="H41" s="12"/>
@@ -2980,11 +2980,11 @@
       <c r="T41" s="4"/>
       <c r="U41" s="55"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
-      <c r="Z41" s="90"/>
-      <c r="AA41" s="91"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="79"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="12"/>
@@ -3002,9 +3002,9 @@
       <c r="AP41" s="12"/>
     </row>
     <row r="42" spans="2:42">
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="62" t="s">
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="66" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="33"/>
@@ -3024,11 +3024,11 @@
       <c r="T42" s="61"/>
       <c r="U42" s="55"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="89"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="90"/>
-      <c r="AA42" s="91"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="79"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="12"/>
@@ -3046,9 +3046,9 @@
       <c r="AP42" s="12"/>
     </row>
     <row r="43" spans="2:42">
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="63"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="33"/>
       <c r="G43" s="1"/>
       <c r="H43" s="12"/>
@@ -3066,11 +3066,11 @@
       <c r="T43" s="4"/>
       <c r="U43" s="55"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="89"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="91"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="79"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="12"/>
@@ -3088,9 +3088,9 @@
       <c r="AP43" s="12"/>
     </row>
     <row r="44" spans="2:42">
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="62" t="s">
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="33"/>
@@ -3110,11 +3110,11 @@
       <c r="T44" s="4"/>
       <c r="U44" s="55"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-      <c r="AA44" s="91"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="79"/>
       <c r="AB44" s="37"/>
       <c r="AC44" s="35"/>
       <c r="AD44" s="12"/>
@@ -3132,9 +3132,9 @@
       <c r="AP44" s="12"/>
     </row>
     <row r="45" spans="2:42">
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="63"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="33"/>
       <c r="G45" s="1"/>
       <c r="H45" s="12"/>
@@ -3152,11 +3152,11 @@
       <c r="T45" s="4"/>
       <c r="U45" s="55"/>
       <c r="V45" s="56"/>
-      <c r="W45" s="89"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="90"/>
-      <c r="AA45" s="91"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="78"/>
+      <c r="AA45" s="79"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="12"/>
@@ -3174,9 +3174,9 @@
       <c r="AP45" s="12"/>
     </row>
     <row r="46" spans="2:42">
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="62" t="s">
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="66" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="33"/>
@@ -3196,11 +3196,11 @@
       <c r="T46" s="4"/>
       <c r="U46" s="55"/>
       <c r="V46" s="56"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="90"/>
-      <c r="AA46" s="91"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="79"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="36"/>
@@ -3218,9 +3218,9 @@
       <c r="AP46" s="12"/>
     </row>
     <row r="47" spans="2:42">
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="63"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="12"/>
@@ -3238,11 +3238,11 @@
       <c r="T47" s="4"/>
       <c r="U47" s="55"/>
       <c r="V47" s="56"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="90"/>
-      <c r="Z47" s="90"/>
-      <c r="AA47" s="91"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
+      <c r="AA47" s="79"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="12"/>
@@ -3260,9 +3260,9 @@
       <c r="AP47" s="12"/>
     </row>
     <row r="48" spans="2:42">
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="62" t="s">
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="66" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="33"/>
@@ -3282,11 +3282,11 @@
       <c r="T48" s="4"/>
       <c r="U48" s="55"/>
       <c r="V48" s="56"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="91"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="79"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="12"/>
@@ -3304,9 +3304,9 @@
       <c r="AP48" s="12"/>
     </row>
     <row r="49" spans="3:42">
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="63"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="12"/>
@@ -3324,11 +3324,11 @@
       <c r="T49" s="4"/>
       <c r="U49" s="55"/>
       <c r="V49" s="56"/>
-      <c r="W49" s="89"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="90"/>
-      <c r="Z49" s="90"/>
-      <c r="AA49" s="91"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="79"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="12"/>
@@ -3346,9 +3346,9 @@
       <c r="AP49" s="12"/>
     </row>
     <row r="50" spans="3:42">
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="62" t="s">
+      <c r="C50" s="90"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="66" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="33"/>
@@ -3368,11 +3368,11 @@
       <c r="T50" s="4"/>
       <c r="U50" s="55"/>
       <c r="V50" s="56"/>
-      <c r="W50" s="89"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="90"/>
-      <c r="AA50" s="91"/>
+      <c r="W50" s="77"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+      <c r="AA50" s="79"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="12"/>
@@ -3390,9 +3390,9 @@
       <c r="AP50" s="12"/>
     </row>
     <row r="51" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C51" s="73"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="63"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="12"/>
@@ -3410,11 +3410,11 @@
       <c r="T51" s="4"/>
       <c r="U51" s="55"/>
       <c r="V51" s="56"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
-      <c r="Z51" s="90"/>
-      <c r="AA51" s="91"/>
+      <c r="W51" s="77"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="79"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="12"/>
@@ -3432,11 +3432,11 @@
       <c r="AP51" s="12"/>
     </row>
     <row r="52" spans="3:42" ht="15.75" thickTop="1">
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="62" t="s">
+      <c r="D52" s="95"/>
+      <c r="E52" s="66" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="33"/>
@@ -3456,11 +3456,11 @@
       <c r="T52" s="4"/>
       <c r="U52" s="55"/>
       <c r="V52" s="56"/>
-      <c r="W52" s="89"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="90"/>
-      <c r="Z52" s="90"/>
-      <c r="AA52" s="91"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="79"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="12"/>
@@ -3478,9 +3478,9 @@
       <c r="AP52" s="12"/>
     </row>
     <row r="53" spans="3:42">
-      <c r="C53" s="77"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="63"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="12"/>
@@ -3498,11 +3498,11 @@
       <c r="T53" s="4"/>
       <c r="U53" s="55"/>
       <c r="V53" s="56"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="90"/>
-      <c r="AA53" s="91"/>
+      <c r="W53" s="77"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="79"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="12"/>
@@ -3520,9 +3520,9 @@
       <c r="AP53" s="12"/>
     </row>
     <row r="54" spans="3:42">
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="62" t="s">
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="33"/>
@@ -3542,11 +3542,11 @@
       <c r="T54" s="4"/>
       <c r="U54" s="55"/>
       <c r="V54" s="56"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="90"/>
-      <c r="AA54" s="91"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="78"/>
+      <c r="Y54" s="78"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="79"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="12"/>
@@ -3564,9 +3564,9 @@
       <c r="AP54" s="12"/>
     </row>
     <row r="55" spans="3:42">
-      <c r="C55" s="77"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="63"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="12"/>
@@ -3584,11 +3584,11 @@
       <c r="T55" s="4"/>
       <c r="U55" s="55"/>
       <c r="V55" s="56"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="90"/>
-      <c r="AA55" s="91"/>
+      <c r="W55" s="77"/>
+      <c r="X55" s="78"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="78"/>
+      <c r="AA55" s="79"/>
       <c r="AB55" s="48"/>
       <c r="AC55" s="46"/>
       <c r="AD55" s="47"/>
@@ -3606,9 +3606,9 @@
       <c r="AP55" s="47"/>
     </row>
     <row r="56" spans="3:42">
-      <c r="C56" s="77"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="62" t="s">
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="66" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="33"/>
@@ -3628,11 +3628,11 @@
       <c r="T56" s="4"/>
       <c r="U56" s="55"/>
       <c r="V56" s="56"/>
-      <c r="W56" s="89"/>
-      <c r="X56" s="90"/>
-      <c r="Y56" s="90"/>
-      <c r="Z56" s="90"/>
-      <c r="AA56" s="91"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="78"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="78"/>
+      <c r="AA56" s="79"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="12"/>
@@ -3650,9 +3650,9 @@
       <c r="AP56" s="36"/>
     </row>
     <row r="57" spans="3:42">
-      <c r="C57" s="77"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="63"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="33"/>
       <c r="G57" s="1"/>
       <c r="H57" s="12"/>
@@ -3670,11 +3670,11 @@
       <c r="T57" s="4"/>
       <c r="U57" s="55"/>
       <c r="V57" s="56"/>
-      <c r="W57" s="89"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="91"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="78"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="78"/>
+      <c r="AA57" s="79"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="12"/>
@@ -3692,9 +3692,9 @@
       <c r="AP57" s="12"/>
     </row>
     <row r="58" spans="3:42">
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="62" t="s">
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="66" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="34"/>
@@ -3714,11 +3714,11 @@
       <c r="T58" s="6"/>
       <c r="U58" s="53"/>
       <c r="V58" s="54"/>
-      <c r="W58" s="89"/>
-      <c r="X58" s="90"/>
-      <c r="Y58" s="90"/>
-      <c r="Z58" s="90"/>
-      <c r="AA58" s="91"/>
+      <c r="W58" s="77"/>
+      <c r="X58" s="78"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="78"/>
+      <c r="AA58" s="79"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="12"/>
@@ -3736,9 +3736,9 @@
       <c r="AP58" s="50"/>
     </row>
     <row r="59" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C59" s="79"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="45"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -3756,11 +3756,11 @@
       <c r="T59" s="29"/>
       <c r="U59" s="57"/>
       <c r="V59" s="58"/>
-      <c r="W59" s="92"/>
-      <c r="X59" s="93"/>
-      <c r="Y59" s="93"/>
-      <c r="Z59" s="93"/>
-      <c r="AA59" s="94"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="82"/>
       <c r="AB59" s="45"/>
       <c r="AC59" s="27"/>
       <c r="AD59" s="28"/>
@@ -3786,14 +3786,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:D21"/>
+    <mergeCell ref="C22:D37"/>
+    <mergeCell ref="C38:D51"/>
+    <mergeCell ref="C52:D59"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
@@ -3809,18 +3813,14 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E59"/>
-    <mergeCell ref="C6:D21"/>
-    <mergeCell ref="C22:D37"/>
-    <mergeCell ref="C38:D51"/>
-    <mergeCell ref="C52:D59"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Dokumente/Zeitplan.xlsx
+++ b/Dokumente/Zeitplan.xlsx
@@ -800,68 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -909,6 +847,68 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1210,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
@@ -1290,10 +1290,10 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="14"/>
-      <c r="AN4" s="62" t="s">
+      <c r="AN4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="63"/>
+      <c r="AO4" s="96"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
@@ -1355,13 +1355,13 @@
       <c r="V5" s="22">
         <v>22</v>
       </c>
-      <c r="W5" s="71" t="s">
+      <c r="W5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="73"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="84"/>
       <c r="AB5" s="30">
         <v>5</v>
       </c>
@@ -1412,11 +1412,11 @@
     </row>
     <row r="6" spans="2:44" ht="15.75" customHeight="1" thickTop="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="64" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="97" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="52"/>
@@ -1436,13 +1436,13 @@
       <c r="T6" s="6"/>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="74" t="s">
+      <c r="W6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="76"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="87"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="11"/>
@@ -1462,9 +1462,9 @@
     </row>
     <row r="7" spans="2:44">
       <c r="B7" s="5"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="65"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41"/>
       <c r="H7" s="42"/>
@@ -1482,11 +1482,11 @@
       <c r="T7" s="4"/>
       <c r="U7" s="55"/>
       <c r="V7" s="56"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="79"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="90"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="12"/>
@@ -1505,9 +1505,9 @@
     </row>
     <row r="8" spans="2:44">
       <c r="B8" s="5"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="80" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4"/>
@@ -1527,11 +1527,11 @@
       <c r="T8" s="4"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="79"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="90"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="12"/>
@@ -1550,9 +1550,9 @@
     </row>
     <row r="9" spans="2:44">
       <c r="B9" s="5"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="65"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="4"/>
       <c r="G9" s="41"/>
       <c r="H9" s="42"/>
@@ -1570,11 +1570,11 @@
       <c r="T9" s="4"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="79"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="90"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="12"/>
@@ -1593,9 +1593,9 @@
     </row>
     <row r="10" spans="2:44">
       <c r="B10" s="5"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="68" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="98" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
@@ -1615,11 +1615,11 @@
       <c r="T10" s="4"/>
       <c r="U10" s="55"/>
       <c r="V10" s="56"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="79"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="90"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="12"/>
@@ -1638,9 +1638,9 @@
     </row>
     <row r="11" spans="2:44">
       <c r="B11" s="5"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="69"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="12"/>
@@ -1658,11 +1658,11 @@
       <c r="T11" s="4"/>
       <c r="U11" s="55"/>
       <c r="V11" s="56"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="79"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="12"/>
@@ -1681,9 +1681,9 @@
     </row>
     <row r="12" spans="2:44">
       <c r="B12" s="5"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="70" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="80" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
@@ -1703,11 +1703,11 @@
       <c r="T12" s="4"/>
       <c r="U12" s="55"/>
       <c r="V12" s="56"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="79"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="90"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="12"/>
@@ -1726,9 +1726,9 @@
     </row>
     <row r="13" spans="2:44">
       <c r="B13" s="5"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="65"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
@@ -1746,11 +1746,11 @@
       <c r="T13" s="4"/>
       <c r="U13" s="55"/>
       <c r="V13" s="56"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="79"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="90"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="12"/>
@@ -1769,9 +1769,9 @@
     </row>
     <row r="14" spans="2:44">
       <c r="B14" s="5"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="68" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
@@ -1791,11 +1791,11 @@
       <c r="T14" s="4"/>
       <c r="U14" s="55"/>
       <c r="V14" s="56"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="79"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="90"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="12"/>
@@ -1814,9 +1814,9 @@
     </row>
     <row r="15" spans="2:44">
       <c r="B15" s="5"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="69"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="12"/>
@@ -1834,11 +1834,11 @@
       <c r="T15" s="4"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="79"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="90"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="12"/>
@@ -1857,9 +1857,9 @@
     </row>
     <row r="16" spans="2:44">
       <c r="B16" s="5"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="68" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="98" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4"/>
@@ -1879,11 +1879,11 @@
       <c r="T16" s="4"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="79"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="90"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="12"/>
@@ -1902,9 +1902,9 @@
     </row>
     <row r="17" spans="2:42">
       <c r="B17" s="5"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="69"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="12"/>
@@ -1922,11 +1922,11 @@
       <c r="T17" s="4"/>
       <c r="U17" s="55"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="79"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="90"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="12"/>
@@ -1945,9 +1945,9 @@
     </row>
     <row r="18" spans="2:42">
       <c r="B18" s="5"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="68" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="98" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4"/>
@@ -1967,11 +1967,11 @@
       <c r="T18" s="4"/>
       <c r="U18" s="55"/>
       <c r="V18" s="56"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="79"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="12"/>
@@ -1990,9 +1990,9 @@
     </row>
     <row r="19" spans="2:42">
       <c r="B19" s="5"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="69"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="12"/>
@@ -2010,11 +2010,11 @@
       <c r="T19" s="4"/>
       <c r="U19" s="55"/>
       <c r="V19" s="56"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="79"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="90"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="12"/>
@@ -2033,9 +2033,9 @@
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="5"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="70" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="80" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4"/>
@@ -2055,11 +2055,11 @@
       <c r="T20" s="4"/>
       <c r="U20" s="55"/>
       <c r="V20" s="56"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="79"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="12"/>
@@ -2078,9 +2078,9 @@
     </row>
     <row r="21" spans="2:42" ht="15.75" thickBot="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="65"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="12"/>
@@ -2098,11 +2098,11 @@
       <c r="T21" s="4"/>
       <c r="U21" s="55"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="79"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="90"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="12"/>
@@ -2121,11 +2121,11 @@
     </row>
     <row r="22" spans="2:42" ht="15.75" thickTop="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="66" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="78" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4"/>
@@ -2145,11 +2145,11 @@
       <c r="T22" s="4"/>
       <c r="U22" s="55"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="79"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="90"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="12"/>
@@ -2168,9 +2168,9 @@
     </row>
     <row r="23" spans="2:42">
       <c r="B23" s="5"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="12"/>
@@ -2188,11 +2188,11 @@
       <c r="T23" s="4"/>
       <c r="U23" s="55"/>
       <c r="V23" s="56"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="79"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="90"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="12"/>
@@ -2211,9 +2211,9 @@
     </row>
     <row r="24" spans="2:42">
       <c r="B24" s="5"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="66" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="78" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4"/>
@@ -2233,11 +2233,11 @@
       <c r="T24" s="4"/>
       <c r="U24" s="55"/>
       <c r="V24" s="56"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="79"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="90"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="12"/>
@@ -2256,9 +2256,9 @@
     </row>
     <row r="25" spans="2:42">
       <c r="B25" s="5"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="44"/>
@@ -2276,11 +2276,11 @@
       <c r="T25" s="4"/>
       <c r="U25" s="55"/>
       <c r="V25" s="56"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="79"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="12"/>
@@ -2299,9 +2299,9 @@
     </row>
     <row r="26" spans="2:42">
       <c r="B26" s="5"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="66" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="78" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
@@ -2321,11 +2321,11 @@
       <c r="T26" s="4"/>
       <c r="U26" s="55"/>
       <c r="V26" s="56"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="79"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="90"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="12"/>
@@ -2344,9 +2344,9 @@
     </row>
     <row r="27" spans="2:42" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="12"/>
@@ -2364,11 +2364,11 @@
       <c r="T27" s="4"/>
       <c r="U27" s="55"/>
       <c r="V27" s="56"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="79"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="90"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="12"/>
@@ -2387,9 +2387,9 @@
     </row>
     <row r="28" spans="2:42">
       <c r="B28" s="5"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="66" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="78" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="33"/>
@@ -2409,11 +2409,11 @@
       <c r="T28" s="4"/>
       <c r="U28" s="55"/>
       <c r="V28" s="56"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="79"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="90"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="12"/>
@@ -2432,9 +2432,9 @@
     </row>
     <row r="29" spans="2:42">
       <c r="B29" s="5"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="34"/>
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
@@ -2452,11 +2452,11 @@
       <c r="T29" s="6"/>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="79"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="90"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="12"/>
@@ -2475,9 +2475,9 @@
     </row>
     <row r="30" spans="2:42">
       <c r="B30" s="5"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="66" t="s">
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="78" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="33"/>
@@ -2497,11 +2497,11 @@
       <c r="T30" s="4"/>
       <c r="U30" s="55"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="79"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="90"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="12"/>
@@ -2520,9 +2520,9 @@
     </row>
     <row r="31" spans="2:42" ht="15.75" customHeight="1">
       <c r="B31" s="5"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="33"/>
       <c r="G31" s="1"/>
       <c r="H31" s="12"/>
@@ -2540,11 +2540,11 @@
       <c r="T31" s="4"/>
       <c r="U31" s="55"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="79"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="90"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="12"/>
@@ -2563,9 +2563,9 @@
     </row>
     <row r="32" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="5"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="66" t="s">
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="78" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="33"/>
@@ -2585,11 +2585,11 @@
       <c r="T32" s="4"/>
       <c r="U32" s="55"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="79"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="90"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="12"/>
@@ -2608,9 +2608,9 @@
     </row>
     <row r="33" spans="2:42" ht="15.75" thickTop="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="12"/>
@@ -2628,13 +2628,13 @@
       <c r="T33" s="4"/>
       <c r="U33" s="55"/>
       <c r="V33" s="56"/>
-      <c r="W33" s="74" t="s">
+      <c r="W33" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="76"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="12"/>
@@ -2653,9 +2653,9 @@
     </row>
     <row r="34" spans="2:42">
       <c r="B34" s="5"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="66" t="s">
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="78" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="33"/>
@@ -2675,11 +2675,11 @@
       <c r="T34" s="4"/>
       <c r="U34" s="55"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="79"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="90"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="12"/>
@@ -2698,9 +2698,9 @@
     </row>
     <row r="35" spans="2:42">
       <c r="B35" s="5"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="33"/>
       <c r="G35" s="1"/>
       <c r="H35" s="12"/>
@@ -2718,11 +2718,11 @@
       <c r="T35" s="4"/>
       <c r="U35" s="55"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="79"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="90"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="12"/>
@@ -2741,9 +2741,9 @@
     </row>
     <row r="36" spans="2:42">
       <c r="B36" s="5"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="66" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="78" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="33"/>
@@ -2763,11 +2763,11 @@
       <c r="T36" s="4"/>
       <c r="U36" s="55"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="79"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="90"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="12"/>
@@ -2786,9 +2786,9 @@
     </row>
     <row r="37" spans="2:42" ht="15.75" thickBot="1">
       <c r="B37" s="5"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="67"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="33"/>
       <c r="G37" s="1"/>
       <c r="H37" s="12"/>
@@ -2806,11 +2806,11 @@
       <c r="T37" s="4"/>
       <c r="U37" s="55"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="79"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="90"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="12"/>
@@ -2828,11 +2828,11 @@
       <c r="AP37" s="12"/>
     </row>
     <row r="38" spans="2:42" ht="15.75" thickTop="1">
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="66" t="s">
+      <c r="D38" s="67"/>
+      <c r="E38" s="78" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="33"/>
@@ -2852,11 +2852,11 @@
       <c r="T38" s="4"/>
       <c r="U38" s="55"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="79"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="90"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="12"/>
@@ -2874,9 +2874,9 @@
       <c r="AP38" s="12"/>
     </row>
     <row r="39" spans="2:42">
-      <c r="C39" s="90"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="12"/>
@@ -2894,11 +2894,11 @@
       <c r="T39" s="4"/>
       <c r="U39" s="55"/>
       <c r="V39" s="56"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="79"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="89"/>
+      <c r="Z39" s="89"/>
+      <c r="AA39" s="90"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="12"/>
@@ -2916,9 +2916,9 @@
       <c r="AP39" s="12"/>
     </row>
     <row r="40" spans="2:42">
-      <c r="C40" s="90"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="66" t="s">
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="78" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="33"/>
@@ -2938,11 +2938,11 @@
       <c r="T40" s="61"/>
       <c r="U40" s="55"/>
       <c r="V40" s="56"/>
-      <c r="W40" s="77"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="79"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="90"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="12"/>
@@ -2960,9 +2960,9 @@
       <c r="AP40" s="12"/>
     </row>
     <row r="41" spans="2:42">
-      <c r="C41" s="90"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="33"/>
       <c r="G41" s="1"/>
       <c r="H41" s="12"/>
@@ -2980,11 +2980,11 @@
       <c r="T41" s="4"/>
       <c r="U41" s="55"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="78"/>
-      <c r="Z41" s="78"/>
-      <c r="AA41" s="79"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="90"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="12"/>
@@ -3002,9 +3002,9 @@
       <c r="AP41" s="12"/>
     </row>
     <row r="42" spans="2:42">
-      <c r="C42" s="90"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="66" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="78" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="33"/>
@@ -3024,11 +3024,11 @@
       <c r="T42" s="61"/>
       <c r="U42" s="55"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="79"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="90"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="12"/>
@@ -3046,9 +3046,9 @@
       <c r="AP42" s="12"/>
     </row>
     <row r="43" spans="2:42">
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="33"/>
       <c r="G43" s="1"/>
       <c r="H43" s="12"/>
@@ -3066,11 +3066,11 @@
       <c r="T43" s="4"/>
       <c r="U43" s="55"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="79"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="89"/>
+      <c r="Z43" s="89"/>
+      <c r="AA43" s="90"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="12"/>
@@ -3088,9 +3088,9 @@
       <c r="AP43" s="12"/>
     </row>
     <row r="44" spans="2:42">
-      <c r="C44" s="90"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="66" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="78" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="33"/>
@@ -3110,11 +3110,11 @@
       <c r="T44" s="4"/>
       <c r="U44" s="55"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="79"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="90"/>
       <c r="AB44" s="37"/>
       <c r="AC44" s="35"/>
       <c r="AD44" s="12"/>
@@ -3132,9 +3132,9 @@
       <c r="AP44" s="12"/>
     </row>
     <row r="45" spans="2:42">
-      <c r="C45" s="90"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="33"/>
       <c r="G45" s="1"/>
       <c r="H45" s="12"/>
@@ -3152,11 +3152,11 @@
       <c r="T45" s="4"/>
       <c r="U45" s="55"/>
       <c r="V45" s="56"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="78"/>
-      <c r="AA45" s="79"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="89"/>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="90"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="12"/>
@@ -3174,9 +3174,9 @@
       <c r="AP45" s="12"/>
     </row>
     <row r="46" spans="2:42">
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="66" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="78" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="33"/>
@@ -3196,11 +3196,11 @@
       <c r="T46" s="4"/>
       <c r="U46" s="55"/>
       <c r="V46" s="56"/>
-      <c r="W46" s="77"/>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="79"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="89"/>
+      <c r="Z46" s="89"/>
+      <c r="AA46" s="90"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="36"/>
@@ -3218,9 +3218,9 @@
       <c r="AP46" s="12"/>
     </row>
     <row r="47" spans="2:42">
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="12"/>
@@ -3238,11 +3238,11 @@
       <c r="T47" s="4"/>
       <c r="U47" s="55"/>
       <c r="V47" s="56"/>
-      <c r="W47" s="77"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="78"/>
-      <c r="AA47" s="79"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
+      <c r="Z47" s="89"/>
+      <c r="AA47" s="90"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="12"/>
@@ -3260,9 +3260,9 @@
       <c r="AP47" s="12"/>
     </row>
     <row r="48" spans="2:42">
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="66" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="78" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="33"/>
@@ -3282,11 +3282,11 @@
       <c r="T48" s="4"/>
       <c r="U48" s="55"/>
       <c r="V48" s="56"/>
-      <c r="W48" s="77"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="79"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="89"/>
+      <c r="Z48" s="89"/>
+      <c r="AA48" s="90"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="12"/>
@@ -3304,9 +3304,9 @@
       <c r="AP48" s="12"/>
     </row>
     <row r="49" spans="3:42">
-      <c r="C49" s="90"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="12"/>
@@ -3324,11 +3324,11 @@
       <c r="T49" s="4"/>
       <c r="U49" s="55"/>
       <c r="V49" s="56"/>
-      <c r="W49" s="77"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="79"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="90"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="12"/>
@@ -3346,9 +3346,9 @@
       <c r="AP49" s="12"/>
     </row>
     <row r="50" spans="3:42">
-      <c r="C50" s="90"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="66" t="s">
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="78" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="33"/>
@@ -3368,11 +3368,11 @@
       <c r="T50" s="4"/>
       <c r="U50" s="55"/>
       <c r="V50" s="56"/>
-      <c r="W50" s="77"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
-      <c r="AA50" s="79"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="89"/>
+      <c r="AA50" s="90"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="12"/>
@@ -3390,9 +3390,9 @@
       <c r="AP50" s="12"/>
     </row>
     <row r="51" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C51" s="92"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="67"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="12"/>
@@ -3410,11 +3410,11 @@
       <c r="T51" s="4"/>
       <c r="U51" s="55"/>
       <c r="V51" s="56"/>
-      <c r="W51" s="77"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="78"/>
-      <c r="AA51" s="79"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="90"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="12"/>
@@ -3432,11 +3432,11 @@
       <c r="AP51" s="12"/>
     </row>
     <row r="52" spans="3:42" ht="15.75" thickTop="1">
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="95"/>
-      <c r="E52" s="66" t="s">
+      <c r="D52" s="73"/>
+      <c r="E52" s="78" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="33"/>
@@ -3456,11 +3456,11 @@
       <c r="T52" s="4"/>
       <c r="U52" s="55"/>
       <c r="V52" s="56"/>
-      <c r="W52" s="77"/>
-      <c r="X52" s="78"/>
-      <c r="Y52" s="78"/>
-      <c r="Z52" s="78"/>
-      <c r="AA52" s="79"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="89"/>
+      <c r="AA52" s="90"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="12"/>
@@ -3478,9 +3478,9 @@
       <c r="AP52" s="12"/>
     </row>
     <row r="53" spans="3:42">
-      <c r="C53" s="96"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="12"/>
@@ -3498,11 +3498,11 @@
       <c r="T53" s="4"/>
       <c r="U53" s="55"/>
       <c r="V53" s="56"/>
-      <c r="W53" s="77"/>
-      <c r="X53" s="78"/>
-      <c r="Y53" s="78"/>
-      <c r="Z53" s="78"/>
-      <c r="AA53" s="79"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="89"/>
+      <c r="Z53" s="89"/>
+      <c r="AA53" s="90"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="12"/>
@@ -3520,9 +3520,9 @@
       <c r="AP53" s="12"/>
     </row>
     <row r="54" spans="3:42">
-      <c r="C54" s="96"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="66" t="s">
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="78" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="33"/>
@@ -3542,11 +3542,11 @@
       <c r="T54" s="4"/>
       <c r="U54" s="55"/>
       <c r="V54" s="56"/>
-      <c r="W54" s="77"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="79"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="90"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="12"/>
@@ -3564,9 +3564,9 @@
       <c r="AP54" s="12"/>
     </row>
     <row r="55" spans="3:42">
-      <c r="C55" s="96"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="67"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="79"/>
       <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="12"/>
@@ -3584,11 +3584,11 @@
       <c r="T55" s="4"/>
       <c r="U55" s="55"/>
       <c r="V55" s="56"/>
-      <c r="W55" s="77"/>
-      <c r="X55" s="78"/>
-      <c r="Y55" s="78"/>
-      <c r="Z55" s="78"/>
-      <c r="AA55" s="79"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="90"/>
       <c r="AB55" s="48"/>
       <c r="AC55" s="46"/>
       <c r="AD55" s="47"/>
@@ -3606,9 +3606,9 @@
       <c r="AP55" s="47"/>
     </row>
     <row r="56" spans="3:42">
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="66" t="s">
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="78" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="33"/>
@@ -3628,11 +3628,11 @@
       <c r="T56" s="4"/>
       <c r="U56" s="55"/>
       <c r="V56" s="56"/>
-      <c r="W56" s="77"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="78"/>
-      <c r="Z56" s="78"/>
-      <c r="AA56" s="79"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="89"/>
+      <c r="AA56" s="90"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="12"/>
@@ -3650,9 +3650,9 @@
       <c r="AP56" s="36"/>
     </row>
     <row r="57" spans="3:42">
-      <c r="C57" s="96"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="67"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="79"/>
       <c r="F57" s="33"/>
       <c r="G57" s="1"/>
       <c r="H57" s="12"/>
@@ -3670,11 +3670,11 @@
       <c r="T57" s="4"/>
       <c r="U57" s="55"/>
       <c r="V57" s="56"/>
-      <c r="W57" s="77"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="79"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="89"/>
+      <c r="AA57" s="90"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="12"/>
@@ -3692,9 +3692,9 @@
       <c r="AP57" s="12"/>
     </row>
     <row r="58" spans="3:42">
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="66" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="78" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="34"/>
@@ -3714,11 +3714,11 @@
       <c r="T58" s="6"/>
       <c r="U58" s="53"/>
       <c r="V58" s="54"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="78"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="78"/>
-      <c r="AA58" s="79"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="89"/>
+      <c r="AA58" s="90"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="12"/>
@@ -3736,9 +3736,9 @@
       <c r="AP58" s="50"/>
     </row>
     <row r="59" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="83"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="94"/>
       <c r="F59" s="45"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -3756,11 +3756,11 @@
       <c r="T59" s="29"/>
       <c r="U59" s="57"/>
       <c r="V59" s="58"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="81"/>
-      <c r="Y59" s="81"/>
-      <c r="Z59" s="81"/>
-      <c r="AA59" s="82"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="92"/>
+      <c r="Y59" s="92"/>
+      <c r="Z59" s="92"/>
+      <c r="AA59" s="93"/>
       <c r="AB59" s="45"/>
       <c r="AC59" s="27"/>
       <c r="AD59" s="28"/>
@@ -3786,6 +3786,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="W6:AA32"/>
+    <mergeCell ref="W33:AA59"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="C6:D21"/>
     <mergeCell ref="C22:D37"/>
     <mergeCell ref="C38:D51"/>
@@ -3802,25 +3821,6 @@
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="W6:AA32"/>
-    <mergeCell ref="W33:AA59"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Dokumente/Zeitplan.xlsx
+++ b/Dokumente/Zeitplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Arbeitspakete</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Pufferzeit</t>
+  </si>
+  <si>
+    <t>Zeitgemäß abgeschlossen</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -735,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -800,6 +809,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -1210,7 +1223,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AU27" sqref="AU27"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
@@ -1242,6 +1255,10 @@
       <c r="AH2" s="55"/>
       <c r="AI2" t="s">
         <v>42</v>
+      </c>
+      <c r="AM2" s="65"/>
+      <c r="AN2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:44" ht="15.75" thickBot="1">
@@ -1290,10 +1307,10 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="14"/>
-      <c r="AN4" s="95" t="s">
+      <c r="AN4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="96"/>
+      <c r="AO4" s="100"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
@@ -1355,13 +1372,13 @@
       <c r="V5" s="22">
         <v>22</v>
       </c>
-      <c r="W5" s="82" t="s">
+      <c r="W5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="84"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="88"/>
       <c r="AB5" s="30">
         <v>5</v>
       </c>
@@ -1412,11 +1429,11 @@
     </row>
     <row r="6" spans="2:44" ht="15.75" customHeight="1" thickTop="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="101" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="52"/>
@@ -1436,13 +1453,13 @@
       <c r="T6" s="6"/>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="85" t="s">
+      <c r="W6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="87"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="91"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="11"/>
@@ -1462,12 +1479,12 @@
     </row>
     <row r="7" spans="2:44">
       <c r="B7" s="5"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="12"/>
@@ -1482,11 +1499,11 @@
       <c r="T7" s="4"/>
       <c r="U7" s="55"/>
       <c r="V7" s="56"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="12"/>
@@ -1505,9 +1522,9 @@
     </row>
     <row r="8" spans="2:44">
       <c r="B8" s="5"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="84" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4"/>
@@ -1527,11 +1544,11 @@
       <c r="T8" s="4"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="90"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="12"/>
@@ -1550,9 +1567,9 @@
     </row>
     <row r="9" spans="2:44">
       <c r="B9" s="5"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="81"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="4"/>
       <c r="G9" s="41"/>
       <c r="H9" s="42"/>
@@ -1570,11 +1587,11 @@
       <c r="T9" s="4"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="12"/>
@@ -1593,9 +1610,9 @@
     </row>
     <row r="10" spans="2:44">
       <c r="B10" s="5"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="98" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="102" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
@@ -1615,11 +1632,11 @@
       <c r="T10" s="4"/>
       <c r="U10" s="55"/>
       <c r="V10" s="56"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="94"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="12"/>
@@ -1638,16 +1655,16 @@
     </row>
     <row r="11" spans="2:44">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="99"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="12"/>
       <c r="I11" s="4"/>
       <c r="J11" s="41"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="1"/>
       <c r="N11" s="12"/>
       <c r="O11" s="4"/>
@@ -1658,11 +1675,11 @@
       <c r="T11" s="4"/>
       <c r="U11" s="55"/>
       <c r="V11" s="56"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="12"/>
@@ -1681,9 +1698,9 @@
     </row>
     <row r="12" spans="2:44">
       <c r="B12" s="5"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="80" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="84" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
@@ -1703,11 +1720,11 @@
       <c r="T12" s="4"/>
       <c r="U12" s="55"/>
       <c r="V12" s="56"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="12"/>
@@ -1726,9 +1743,9 @@
     </row>
     <row r="13" spans="2:44">
       <c r="B13" s="5"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="81"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
@@ -1746,11 +1763,11 @@
       <c r="T13" s="4"/>
       <c r="U13" s="55"/>
       <c r="V13" s="56"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="12"/>
@@ -1769,9 +1786,9 @@
     </row>
     <row r="14" spans="2:44">
       <c r="B14" s="5"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="98" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="102" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
@@ -1791,11 +1808,11 @@
       <c r="T14" s="4"/>
       <c r="U14" s="55"/>
       <c r="V14" s="56"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="12"/>
@@ -1814,9 +1831,9 @@
     </row>
     <row r="15" spans="2:44">
       <c r="B15" s="5"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="99"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="12"/>
@@ -1834,11 +1851,11 @@
       <c r="T15" s="4"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="12"/>
@@ -1857,9 +1874,9 @@
     </row>
     <row r="16" spans="2:44">
       <c r="B16" s="5"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="98" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="102" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4"/>
@@ -1879,11 +1896,11 @@
       <c r="T16" s="4"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="12"/>
@@ -1902,16 +1919,16 @@
     </row>
     <row r="17" spans="2:42">
       <c r="B17" s="5"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="99"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="1"/>
       <c r="N17" s="12"/>
       <c r="O17" s="4"/>
@@ -1922,11 +1939,11 @@
       <c r="T17" s="4"/>
       <c r="U17" s="55"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="12"/>
@@ -1945,9 +1962,9 @@
     </row>
     <row r="18" spans="2:42">
       <c r="B18" s="5"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="98" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="102" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4"/>
@@ -1967,11 +1984,11 @@
       <c r="T18" s="4"/>
       <c r="U18" s="55"/>
       <c r="V18" s="56"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="12"/>
@@ -1990,16 +2007,16 @@
     </row>
     <row r="19" spans="2:42">
       <c r="B19" s="5"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="99"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="103"/>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="12"/>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="1"/>
       <c r="N19" s="12"/>
       <c r="O19" s="4"/>
@@ -2010,11 +2027,11 @@
       <c r="T19" s="4"/>
       <c r="U19" s="55"/>
       <c r="V19" s="56"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="12"/>
@@ -2033,9 +2050,9 @@
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="5"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="80" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="84" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4"/>
@@ -2055,11 +2072,11 @@
       <c r="T20" s="4"/>
       <c r="U20" s="55"/>
       <c r="V20" s="56"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="12"/>
@@ -2078,9 +2095,9 @@
     </row>
     <row r="21" spans="2:42" ht="15.75" thickBot="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="81"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="12"/>
@@ -2098,11 +2115,11 @@
       <c r="T21" s="4"/>
       <c r="U21" s="55"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="12"/>
@@ -2121,11 +2138,11 @@
     </row>
     <row r="22" spans="2:42" ht="15.75" thickTop="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="78" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="82" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4"/>
@@ -2145,11 +2162,11 @@
       <c r="T22" s="4"/>
       <c r="U22" s="55"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="12"/>
@@ -2168,16 +2185,16 @@
     </row>
     <row r="23" spans="2:42">
       <c r="B23" s="5"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="79"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="12"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="1"/>
       <c r="N23" s="12"/>
       <c r="O23" s="4"/>
@@ -2188,11 +2205,11 @@
       <c r="T23" s="4"/>
       <c r="U23" s="55"/>
       <c r="V23" s="56"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="90"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="12"/>
@@ -2211,9 +2228,9 @@
     </row>
     <row r="24" spans="2:42">
       <c r="B24" s="5"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="78" t="s">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4"/>
@@ -2233,11 +2250,11 @@
       <c r="T24" s="4"/>
       <c r="U24" s="55"/>
       <c r="V24" s="56"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="90"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="12"/>
@@ -2256,9 +2273,9 @@
     </row>
     <row r="25" spans="2:42">
       <c r="B25" s="5"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="79"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="44"/>
@@ -2276,11 +2293,11 @@
       <c r="T25" s="4"/>
       <c r="U25" s="55"/>
       <c r="V25" s="56"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="90"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="12"/>
@@ -2299,9 +2316,9 @@
     </row>
     <row r="26" spans="2:42">
       <c r="B26" s="5"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="78" t="s">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
@@ -2321,11 +2338,11 @@
       <c r="T26" s="4"/>
       <c r="U26" s="55"/>
       <c r="V26" s="56"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="90"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="12"/>
@@ -2344,9 +2361,9 @@
     </row>
     <row r="27" spans="2:42" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="79"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="12"/>
@@ -2364,11 +2381,11 @@
       <c r="T27" s="4"/>
       <c r="U27" s="55"/>
       <c r="V27" s="56"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="90"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="12"/>
@@ -2387,9 +2404,9 @@
     </row>
     <row r="28" spans="2:42">
       <c r="B28" s="5"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="78" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="82" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="33"/>
@@ -2409,11 +2426,11 @@
       <c r="T28" s="4"/>
       <c r="U28" s="55"/>
       <c r="V28" s="56"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="90"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="12"/>
@@ -2432,9 +2449,9 @@
     </row>
     <row r="29" spans="2:42">
       <c r="B29" s="5"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="79"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="34"/>
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
@@ -2452,11 +2469,11 @@
       <c r="T29" s="6"/>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="90"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="12"/>
@@ -2475,9 +2492,9 @@
     </row>
     <row r="30" spans="2:42">
       <c r="B30" s="5"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="78" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="82" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="33"/>
@@ -2497,11 +2514,11 @@
       <c r="T30" s="4"/>
       <c r="U30" s="55"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="90"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="94"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="12"/>
@@ -2520,9 +2537,9 @@
     </row>
     <row r="31" spans="2:42" ht="15.75" customHeight="1">
       <c r="B31" s="5"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="79"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="33"/>
       <c r="G31" s="1"/>
       <c r="H31" s="12"/>
@@ -2540,11 +2557,11 @@
       <c r="T31" s="4"/>
       <c r="U31" s="55"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="90"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="94"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="12"/>
@@ -2563,9 +2580,9 @@
     </row>
     <row r="32" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="5"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="78" t="s">
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="82" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="33"/>
@@ -2585,11 +2602,11 @@
       <c r="T32" s="4"/>
       <c r="U32" s="55"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="90"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="94"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="12"/>
@@ -2608,9 +2625,9 @@
     </row>
     <row r="33" spans="2:42" ht="15.75" thickTop="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="79"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="83"/>
       <c r="F33" s="33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="12"/>
@@ -2628,13 +2645,13 @@
       <c r="T33" s="4"/>
       <c r="U33" s="55"/>
       <c r="V33" s="56"/>
-      <c r="W33" s="85" t="s">
+      <c r="W33" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="87"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="91"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="12"/>
@@ -2653,9 +2670,9 @@
     </row>
     <row r="34" spans="2:42">
       <c r="B34" s="5"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="78" t="s">
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="82" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="33"/>
@@ -2675,11 +2692,11 @@
       <c r="T34" s="4"/>
       <c r="U34" s="55"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="90"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="94"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="12"/>
@@ -2698,9 +2715,9 @@
     </row>
     <row r="35" spans="2:42">
       <c r="B35" s="5"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="79"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="33"/>
       <c r="G35" s="1"/>
       <c r="H35" s="12"/>
@@ -2718,11 +2735,11 @@
       <c r="T35" s="4"/>
       <c r="U35" s="55"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="90"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="94"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="12"/>
@@ -2741,9 +2758,9 @@
     </row>
     <row r="36" spans="2:42">
       <c r="B36" s="5"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="78" t="s">
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="33"/>
@@ -2763,11 +2780,11 @@
       <c r="T36" s="4"/>
       <c r="U36" s="55"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="90"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="94"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="12"/>
@@ -2786,9 +2803,9 @@
     </row>
     <row r="37" spans="2:42" ht="15.75" thickBot="1">
       <c r="B37" s="5"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="79"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="33"/>
       <c r="G37" s="1"/>
       <c r="H37" s="12"/>
@@ -2806,11 +2823,11 @@
       <c r="T37" s="4"/>
       <c r="U37" s="55"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="90"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="94"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="12"/>
@@ -2828,11 +2845,11 @@
       <c r="AP37" s="12"/>
     </row>
     <row r="38" spans="2:42" ht="15.75" thickTop="1">
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="78" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="82" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="33"/>
@@ -2852,11 +2869,11 @@
       <c r="T38" s="4"/>
       <c r="U38" s="55"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="90"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="94"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="12"/>
@@ -2874,9 +2891,9 @@
       <c r="AP38" s="12"/>
     </row>
     <row r="39" spans="2:42">
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="79"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="12"/>
@@ -2894,11 +2911,11 @@
       <c r="T39" s="4"/>
       <c r="U39" s="55"/>
       <c r="V39" s="56"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="90"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="94"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="12"/>
@@ -2916,9 +2933,9 @@
       <c r="AP39" s="12"/>
     </row>
     <row r="40" spans="2:42">
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="78" t="s">
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="33"/>
@@ -2938,11 +2955,11 @@
       <c r="T40" s="61"/>
       <c r="U40" s="55"/>
       <c r="V40" s="56"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="90"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="94"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="12"/>
@@ -2960,9 +2977,9 @@
       <c r="AP40" s="12"/>
     </row>
     <row r="41" spans="2:42">
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="79"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="83"/>
       <c r="F41" s="33"/>
       <c r="G41" s="1"/>
       <c r="H41" s="12"/>
@@ -2980,11 +2997,11 @@
       <c r="T41" s="4"/>
       <c r="U41" s="55"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="90"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="94"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="12"/>
@@ -3002,9 +3019,9 @@
       <c r="AP41" s="12"/>
     </row>
     <row r="42" spans="2:42">
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="78" t="s">
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="82" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="33"/>
@@ -3024,11 +3041,11 @@
       <c r="T42" s="61"/>
       <c r="U42" s="55"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="89"/>
-      <c r="AA42" s="90"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="94"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="12"/>
@@ -3046,9 +3063,9 @@
       <c r="AP42" s="12"/>
     </row>
     <row r="43" spans="2:42">
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="79"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="33"/>
       <c r="G43" s="1"/>
       <c r="H43" s="12"/>
@@ -3066,11 +3083,11 @@
       <c r="T43" s="4"/>
       <c r="U43" s="55"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="89"/>
-      <c r="AA43" s="90"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="94"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="12"/>
@@ -3088,9 +3105,9 @@
       <c r="AP43" s="12"/>
     </row>
     <row r="44" spans="2:42">
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="78" t="s">
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="82" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="33"/>
@@ -3110,11 +3127,11 @@
       <c r="T44" s="4"/>
       <c r="U44" s="55"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="90"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="94"/>
       <c r="AB44" s="37"/>
       <c r="AC44" s="35"/>
       <c r="AD44" s="12"/>
@@ -3132,9 +3149,9 @@
       <c r="AP44" s="12"/>
     </row>
     <row r="45" spans="2:42">
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="79"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="83"/>
       <c r="F45" s="33"/>
       <c r="G45" s="1"/>
       <c r="H45" s="12"/>
@@ -3152,11 +3169,11 @@
       <c r="T45" s="4"/>
       <c r="U45" s="55"/>
       <c r="V45" s="56"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="90"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="94"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="12"/>
@@ -3174,9 +3191,9 @@
       <c r="AP45" s="12"/>
     </row>
     <row r="46" spans="2:42">
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="78" t="s">
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="33"/>
@@ -3196,11 +3213,11 @@
       <c r="T46" s="4"/>
       <c r="U46" s="55"/>
       <c r="V46" s="56"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="90"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="94"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="36"/>
@@ -3218,9 +3235,9 @@
       <c r="AP46" s="12"/>
     </row>
     <row r="47" spans="2:42">
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="79"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="12"/>
@@ -3238,11 +3255,11 @@
       <c r="T47" s="4"/>
       <c r="U47" s="55"/>
       <c r="V47" s="56"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="89"/>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="89"/>
-      <c r="AA47" s="90"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="93"/>
+      <c r="AA47" s="94"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="12"/>
@@ -3260,9 +3277,9 @@
       <c r="AP47" s="12"/>
     </row>
     <row r="48" spans="2:42">
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="78" t="s">
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="82" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="33"/>
@@ -3282,11 +3299,11 @@
       <c r="T48" s="4"/>
       <c r="U48" s="55"/>
       <c r="V48" s="56"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="90"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="93"/>
+      <c r="AA48" s="94"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="12"/>
@@ -3304,9 +3321,9 @@
       <c r="AP48" s="12"/>
     </row>
     <row r="49" spans="3:42">
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="79"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="12"/>
@@ -3324,11 +3341,11 @@
       <c r="T49" s="4"/>
       <c r="U49" s="55"/>
       <c r="V49" s="56"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="89"/>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="89"/>
-      <c r="AA49" s="90"/>
+      <c r="W49" s="92"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="94"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="12"/>
@@ -3346,9 +3363,9 @@
       <c r="AP49" s="12"/>
     </row>
     <row r="50" spans="3:42">
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="78" t="s">
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="82" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="33"/>
@@ -3368,11 +3385,11 @@
       <c r="T50" s="4"/>
       <c r="U50" s="55"/>
       <c r="V50" s="56"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="89"/>
-      <c r="AA50" s="90"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="94"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="12"/>
@@ -3390,9 +3407,9 @@
       <c r="AP50" s="12"/>
     </row>
     <row r="51" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="79"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="12"/>
@@ -3410,11 +3427,11 @@
       <c r="T51" s="4"/>
       <c r="U51" s="55"/>
       <c r="V51" s="56"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="89"/>
-      <c r="AA51" s="90"/>
+      <c r="W51" s="92"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="94"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="12"/>
@@ -3432,11 +3449,11 @@
       <c r="AP51" s="12"/>
     </row>
     <row r="52" spans="3:42" ht="15.75" thickTop="1">
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="78" t="s">
+      <c r="D52" s="77"/>
+      <c r="E52" s="82" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="33"/>
@@ -3456,11 +3473,11 @@
       <c r="T52" s="4"/>
       <c r="U52" s="55"/>
       <c r="V52" s="56"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="89"/>
-      <c r="AA52" s="90"/>
+      <c r="W52" s="92"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="94"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="12"/>
@@ -3478,9 +3495,9 @@
       <c r="AP52" s="12"/>
     </row>
     <row r="53" spans="3:42">
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="79"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="12"/>
@@ -3498,11 +3515,11 @@
       <c r="T53" s="4"/>
       <c r="U53" s="55"/>
       <c r="V53" s="56"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="89"/>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="89"/>
-      <c r="AA53" s="90"/>
+      <c r="W53" s="92"/>
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="94"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="12"/>
@@ -3520,9 +3537,9 @@
       <c r="AP53" s="12"/>
     </row>
     <row r="54" spans="3:42">
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="78" t="s">
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="82" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="33"/>
@@ -3542,11 +3559,11 @@
       <c r="T54" s="4"/>
       <c r="U54" s="55"/>
       <c r="V54" s="56"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="90"/>
+      <c r="W54" s="92"/>
+      <c r="X54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="93"/>
+      <c r="AA54" s="94"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="12"/>
@@ -3564,9 +3581,9 @@
       <c r="AP54" s="12"/>
     </row>
     <row r="55" spans="3:42">
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="79"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="83"/>
       <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="12"/>
@@ -3584,11 +3601,11 @@
       <c r="T55" s="4"/>
       <c r="U55" s="55"/>
       <c r="V55" s="56"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="89"/>
-      <c r="AA55" s="90"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="94"/>
       <c r="AB55" s="48"/>
       <c r="AC55" s="46"/>
       <c r="AD55" s="47"/>
@@ -3606,9 +3623,9 @@
       <c r="AP55" s="47"/>
     </row>
     <row r="56" spans="3:42">
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="78" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="82" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="33"/>
@@ -3628,11 +3645,11 @@
       <c r="T56" s="4"/>
       <c r="U56" s="55"/>
       <c r="V56" s="56"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="89"/>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="89"/>
-      <c r="AA56" s="90"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="94"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="12"/>
@@ -3650,9 +3667,9 @@
       <c r="AP56" s="36"/>
     </row>
     <row r="57" spans="3:42">
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="79"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="83"/>
       <c r="F57" s="33"/>
       <c r="G57" s="1"/>
       <c r="H57" s="12"/>
@@ -3670,11 +3687,11 @@
       <c r="T57" s="4"/>
       <c r="U57" s="55"/>
       <c r="V57" s="56"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="89"/>
-      <c r="Y57" s="89"/>
-      <c r="Z57" s="89"/>
-      <c r="AA57" s="90"/>
+      <c r="W57" s="92"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
+      <c r="AA57" s="94"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="12"/>
@@ -3692,9 +3709,9 @@
       <c r="AP57" s="12"/>
     </row>
     <row r="58" spans="3:42">
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="78" t="s">
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="82" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="34"/>
@@ -3714,11 +3731,11 @@
       <c r="T58" s="6"/>
       <c r="U58" s="53"/>
       <c r="V58" s="54"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="89"/>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="89"/>
-      <c r="AA58" s="90"/>
+      <c r="W58" s="92"/>
+      <c r="X58" s="93"/>
+      <c r="Y58" s="93"/>
+      <c r="Z58" s="93"/>
+      <c r="AA58" s="94"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="12"/>
@@ -3736,9 +3753,9 @@
       <c r="AP58" s="50"/>
     </row>
     <row r="59" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C59" s="76"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="94"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="98"/>
       <c r="F59" s="45"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -3756,11 +3773,11 @@
       <c r="T59" s="29"/>
       <c r="U59" s="57"/>
       <c r="V59" s="58"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="92"/>
-      <c r="Y59" s="92"/>
-      <c r="Z59" s="92"/>
-      <c r="AA59" s="93"/>
+      <c r="W59" s="95"/>
+      <c r="X59" s="96"/>
+      <c r="Y59" s="96"/>
+      <c r="Z59" s="96"/>
+      <c r="AA59" s="97"/>
       <c r="AB59" s="45"/>
       <c r="AC59" s="27"/>
       <c r="AD59" s="28"/>

--- a/Dokumente/Zeitplan.xlsx
+++ b/Dokumente/Zeitplan.xlsx
@@ -1038,47 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1093,18 +1052,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,9 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1128,43 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1191,6 +1099,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1488,10 +1488,10 @@
   <dimension ref="B2:AV60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
@@ -1528,7 +1528,7 @@
       <c r="AM2" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="52"/>
+      <c r="AU2" s="37"/>
       <c r="AV2" t="s">
         <v>44</v>
       </c>
@@ -1579,10 +1579,10 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="37" t="s">
+      <c r="AN4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="38"/>
+      <c r="AO4" s="124"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="14"/>
       <c r="AR4" s="14"/>
@@ -1590,67 +1590,67 @@
     <row r="5" spans="2:48" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="52">
         <v>9</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="53">
         <v>10</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="54">
         <v>11</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="55">
         <v>23</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="53">
         <v>24</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="54">
         <v>25</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="55">
         <v>30</v>
       </c>
-      <c r="M5" s="75">
+      <c r="M5" s="56">
         <v>31</v>
       </c>
-      <c r="N5" s="76">
+      <c r="N5" s="57">
         <v>1</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="58">
         <v>6</v>
       </c>
-      <c r="P5" s="78">
+      <c r="P5" s="59">
         <v>7</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="57">
         <v>8</v>
       </c>
-      <c r="R5" s="78">
+      <c r="R5" s="59">
         <v>14</v>
       </c>
-      <c r="S5" s="76">
+      <c r="S5" s="57">
         <v>15</v>
       </c>
-      <c r="T5" s="77">
+      <c r="T5" s="58">
         <v>20</v>
       </c>
-      <c r="U5" s="78">
+      <c r="U5" s="59">
         <v>21</v>
       </c>
-      <c r="V5" s="79">
+      <c r="V5" s="60">
         <v>22</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="41"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="127"/>
       <c r="AB5" s="20">
         <v>5</v>
       </c>
@@ -1701,37 +1701,37 @@
     </row>
     <row r="6" spans="2:48" ht="15.75" customHeight="1" thickTop="1">
       <c r="B6" s="3"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="80" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="89" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="91"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="113"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="5"/>
@@ -1751,58 +1751,58 @@
     </row>
     <row r="7" spans="2:48" ht="15.75" thickBot="1">
       <c r="B7" s="3"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="59"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="44"/>
     </row>
     <row r="8" spans="2:48">
       <c r="B8" s="3"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="94" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="108" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="25"/>
       <c r="K8" s="5"/>
       <c r="L8" s="4"/>
@@ -1816,11 +1816,11 @@
       <c r="T8" s="4"/>
       <c r="U8" s="32"/>
       <c r="V8" s="33"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="93"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="116"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="5"/>
@@ -1839,52 +1839,52 @@
     </row>
     <row r="9" spans="2:48" ht="15.75" thickBot="1">
       <c r="B9" s="3"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="59"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="44"/>
     </row>
     <row r="10" spans="2:48">
       <c r="B10" s="3"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="95" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="125" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
@@ -1893,7 +1893,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="53"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="1"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
@@ -1904,11 +1904,11 @@
       <c r="T10" s="4"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="93"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="116"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="5"/>
@@ -1927,31 +1927,31 @@
     </row>
     <row r="11" spans="2:48" ht="15.75" thickBot="1">
       <c r="B11" s="3"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="93"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="116"/>
       <c r="AB11" s="30"/>
       <c r="AC11" s="28"/>
       <c r="AD11" s="29"/>
@@ -1970,9 +1970,9 @@
     </row>
     <row r="12" spans="2:48">
       <c r="B12" s="3"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="94" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
@@ -1981,7 +1981,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="53"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="25"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4"/>
@@ -1992,75 +1992,75 @@
       <c r="T12" s="4"/>
       <c r="U12" s="32"/>
       <c r="V12" s="33"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="86"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="66"/>
     </row>
     <row r="13" spans="2:48" ht="15.75" thickBot="1">
       <c r="B13" s="3"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="59"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="44"/>
     </row>
     <row r="14" spans="2:48">
       <c r="B14" s="3"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="95" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="125" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
@@ -2069,9 +2069,9 @@
       <c r="I14" s="4"/>
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="65"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="4"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="5"/>
@@ -2080,11 +2080,11 @@
       <c r="T14" s="4"/>
       <c r="U14" s="32"/>
       <c r="V14" s="33"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="93"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="116"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="5"/>
@@ -2103,31 +2103,31 @@
     </row>
     <row r="15" spans="2:48" ht="15.75" thickBot="1">
       <c r="B15" s="3"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="93"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="116"/>
       <c r="AB15" s="30"/>
       <c r="AC15" s="28"/>
       <c r="AD15" s="29"/>
@@ -2146,9 +2146,9 @@
     </row>
     <row r="16" spans="2:48">
       <c r="B16" s="3"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="95" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="125" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4"/>
@@ -2157,7 +2157,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="1"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="53"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="1"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4"/>
@@ -2168,75 +2168,75 @@
       <c r="T16" s="4"/>
       <c r="U16" s="32"/>
       <c r="V16" s="33"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="86"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="66"/>
     </row>
     <row r="17" spans="2:42" ht="15.75" thickBot="1">
       <c r="B17" s="3"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="59"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="44"/>
     </row>
     <row r="18" spans="2:42">
       <c r="B18" s="3"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="95" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="125" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4"/>
@@ -2256,11 +2256,11 @@
       <c r="T18" s="4"/>
       <c r="U18" s="32"/>
       <c r="V18" s="33"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="93"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="115"/>
+      <c r="AA18" s="116"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="5"/>
@@ -2279,31 +2279,31 @@
     </row>
     <row r="19" spans="2:42" ht="15.75" thickBot="1">
       <c r="B19" s="3"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="93"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="115"/>
+      <c r="AA19" s="116"/>
       <c r="AB19" s="30"/>
       <c r="AC19" s="28"/>
       <c r="AD19" s="29"/>
@@ -2322,9 +2322,9 @@
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="3"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="94" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="108" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4"/>
@@ -2344,77 +2344,77 @@
       <c r="T20" s="4"/>
       <c r="U20" s="32"/>
       <c r="V20" s="33"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="86"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="66"/>
     </row>
     <row r="21" spans="2:42" ht="15.75" thickBot="1">
       <c r="B21" s="3"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="59"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="115"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="44"/>
     </row>
     <row r="22" spans="2:42" ht="15.75" thickTop="1">
       <c r="B22" s="3"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="94" t="s">
+      <c r="D22" s="99"/>
+      <c r="E22" s="108" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4"/>
@@ -2423,7 +2423,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="53"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="1"/>
       <c r="N22" s="5"/>
       <c r="O22" s="4"/>
@@ -2434,11 +2434,11 @@
       <c r="T22" s="4"/>
       <c r="U22" s="32"/>
       <c r="V22" s="33"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="93"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="116"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="5"/>
@@ -2457,31 +2457,31 @@
     </row>
     <row r="23" spans="2:42" ht="15.75" thickBot="1">
       <c r="B23" s="3"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="93"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="115"/>
+      <c r="Z23" s="115"/>
+      <c r="AA23" s="116"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="28"/>
       <c r="AD23" s="29"/>
@@ -2500,97 +2500,97 @@
     </row>
     <row r="24" spans="2:42">
       <c r="B24" s="3"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="94" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="108" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="103"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="106"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="1"/>
       <c r="S24" s="5"/>
       <c r="T24" s="4"/>
       <c r="U24" s="32"/>
       <c r="V24" s="33"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="86"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="115"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="66"/>
     </row>
     <row r="25" spans="2:42" ht="15.75" thickBot="1">
       <c r="B25" s="3"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="59"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="115"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="44"/>
     </row>
     <row r="26" spans="2:42">
       <c r="B26" s="3"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="94" t="s">
+      <c r="C26" s="100"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="108" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
@@ -2599,7 +2599,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="1"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="53"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="25"/>
       <c r="N26" s="5"/>
       <c r="O26" s="4"/>
@@ -2610,11 +2610,11 @@
       <c r="T26" s="4"/>
       <c r="U26" s="32"/>
       <c r="V26" s="33"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="93"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="116"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="5"/>
@@ -2633,31 +2633,31 @@
     </row>
     <row r="27" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="3"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="93"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="116"/>
       <c r="AB27" s="30"/>
       <c r="AC27" s="28"/>
       <c r="AD27" s="29"/>
@@ -2676,9 +2676,9 @@
     </row>
     <row r="28" spans="2:42">
       <c r="B28" s="3"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="94" t="s">
+      <c r="C28" s="100"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="108" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="23"/>
@@ -2687,7 +2687,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="1"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="53"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="25"/>
       <c r="N28" s="26"/>
       <c r="O28" s="4"/>
@@ -2698,75 +2698,75 @@
       <c r="T28" s="4"/>
       <c r="U28" s="32"/>
       <c r="V28" s="33"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="86"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="86"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="86"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="86"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="115"/>
+      <c r="Y28" s="115"/>
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="66"/>
     </row>
     <row r="29" spans="2:42" ht="15.75" thickBot="1">
       <c r="B29" s="3"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="59"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="115"/>
+      <c r="Y29" s="115"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="44"/>
     </row>
     <row r="30" spans="2:42">
       <c r="B30" s="3"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="94" t="s">
+      <c r="C30" s="100"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="108" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="23"/>
@@ -2775,7 +2775,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="1"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="103"/>
+      <c r="L30" s="71"/>
       <c r="M30" s="25"/>
       <c r="N30" s="26"/>
       <c r="O30" s="4"/>
@@ -2786,11 +2786,11 @@
       <c r="T30" s="4"/>
       <c r="U30" s="32"/>
       <c r="V30" s="33"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="93"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="115"/>
+      <c r="Y30" s="115"/>
+      <c r="Z30" s="115"/>
+      <c r="AA30" s="116"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="5"/>
@@ -2809,31 +2809,31 @@
     </row>
     <row r="31" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B31" s="3"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="93"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="116"/>
       <c r="AB31" s="30"/>
       <c r="AC31" s="28"/>
       <c r="AD31" s="29"/>
@@ -2852,9 +2852,9 @@
     </row>
     <row r="32" spans="2:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="3"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="94" t="s">
+      <c r="C32" s="100"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="108" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="23"/>
@@ -2874,77 +2874,77 @@
       <c r="T32" s="4"/>
       <c r="U32" s="32"/>
       <c r="V32" s="33"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="86"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="86"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="85"/>
-      <c r="AM32" s="86"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="86"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="66"/>
     </row>
     <row r="33" spans="2:42" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33" s="3"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="39" t="s">
+      <c r="C33" s="100"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="125"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="59"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="44"/>
     </row>
     <row r="34" spans="2:42">
       <c r="B34" s="3"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="94" t="s">
+      <c r="C34" s="100"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="23"/>
@@ -2953,22 +2953,22 @@
       <c r="I34" s="4"/>
       <c r="J34" s="1"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="53"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="38"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="65"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="50"/>
       <c r="T34" s="4"/>
       <c r="U34" s="32"/>
       <c r="V34" s="33"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="93"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="116"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="5"/>
@@ -2987,31 +2987,31 @@
     </row>
     <row r="35" spans="2:42" ht="15.75" thickBot="1">
       <c r="B35" s="3"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="93"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="116"/>
       <c r="AB35" s="30"/>
       <c r="AC35" s="28"/>
       <c r="AD35" s="29"/>
@@ -3030,9 +3030,9 @@
     </row>
     <row r="36" spans="2:42">
       <c r="B36" s="3"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="94" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="108" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="23"/>
@@ -3041,87 +3041,87 @@
       <c r="I36" s="4"/>
       <c r="J36" s="1"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="53"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="38"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="65"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="50"/>
       <c r="T36" s="4"/>
       <c r="U36" s="32"/>
       <c r="V36" s="33"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="124"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="86"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="85"/>
-      <c r="AG36" s="86"/>
-      <c r="AH36" s="84"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="86"/>
-      <c r="AK36" s="84"/>
-      <c r="AL36" s="85"/>
-      <c r="AM36" s="86"/>
-      <c r="AN36" s="84"/>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="86"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="116"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="66"/>
     </row>
     <row r="37" spans="2:42" ht="15.75" thickBot="1">
       <c r="B37" s="3"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="61"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="125"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="57"/>
-      <c r="AI37" s="58"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="57"/>
-      <c r="AO37" s="58"/>
-      <c r="AP37" s="59"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="44"/>
     </row>
     <row r="38" spans="2:42" ht="15.75" thickTop="1">
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="94" t="s">
+      <c r="D38" s="99"/>
+      <c r="E38" s="108" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="23"/>
@@ -3130,22 +3130,22 @@
       <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="103"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="71"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="65"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="50"/>
       <c r="T38" s="4"/>
       <c r="U38" s="32"/>
       <c r="V38" s="33"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="93"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="115"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="116"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="5"/>
@@ -3163,31 +3163,31 @@
       <c r="AP38" s="5"/>
     </row>
     <row r="39" spans="2:42" ht="15.75" thickBot="1">
-      <c r="C39" s="47"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="93"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="115"/>
+      <c r="Z39" s="115"/>
+      <c r="AA39" s="116"/>
       <c r="AB39" s="30"/>
       <c r="AC39" s="28"/>
       <c r="AD39" s="29"/>
@@ -3205,9 +3205,9 @@
       <c r="AP39" s="29"/>
     </row>
     <row r="40" spans="2:42">
-      <c r="C40" s="47"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="94" t="s">
+      <c r="C40" s="100"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="108" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="23"/>
@@ -3216,84 +3216,84 @@
       <c r="I40" s="4"/>
       <c r="J40" s="1"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="104"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="72"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="25"/>
       <c r="S40" s="26"/>
-      <c r="T40" s="121"/>
+      <c r="T40" s="89"/>
       <c r="U40" s="32"/>
       <c r="V40" s="33"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="93"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="85"/>
-      <c r="AD40" s="86"/>
-      <c r="AE40" s="84"/>
-      <c r="AF40" s="85"/>
-      <c r="AG40" s="86"/>
-      <c r="AH40" s="84"/>
-      <c r="AI40" s="85"/>
-      <c r="AJ40" s="86"/>
-      <c r="AK40" s="84"/>
-      <c r="AL40" s="85"/>
-      <c r="AM40" s="86"/>
-      <c r="AN40" s="84"/>
-      <c r="AO40" s="85"/>
-      <c r="AP40" s="86"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="115"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="116"/>
+      <c r="AB40" s="92"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="64"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="64"/>
+      <c r="AO40" s="65"/>
+      <c r="AP40" s="66"/>
     </row>
     <row r="41" spans="2:42" ht="15.75" thickBot="1">
-      <c r="C41" s="47"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="93"/>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="57"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="57"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="57"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="59"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="115"/>
+      <c r="Y41" s="115"/>
+      <c r="Z41" s="115"/>
+      <c r="AA41" s="116"/>
+      <c r="AB41" s="93"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="44"/>
     </row>
     <row r="42" spans="2:42">
-      <c r="C42" s="47"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="94" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="108" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="23"/>
@@ -3310,14 +3310,14 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="1"/>
       <c r="S42" s="26"/>
-      <c r="T42" s="121"/>
+      <c r="T42" s="89"/>
       <c r="U42" s="32"/>
       <c r="V42" s="33"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="93"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="115"/>
+      <c r="Y42" s="115"/>
+      <c r="Z42" s="115"/>
+      <c r="AA42" s="116"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="5"/>
@@ -3335,31 +3335,31 @@
       <c r="AP42" s="5"/>
     </row>
     <row r="43" spans="2:42" ht="15.75" thickBot="1">
-      <c r="C43" s="47"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="60"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="93"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="115"/>
+      <c r="X43" s="115"/>
+      <c r="Y43" s="115"/>
+      <c r="Z43" s="115"/>
+      <c r="AA43" s="116"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="28"/>
       <c r="AD43" s="29"/>
@@ -3377,9 +3377,9 @@
       <c r="AP43" s="29"/>
     </row>
     <row r="44" spans="2:42">
-      <c r="C44" s="47"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="94" t="s">
+      <c r="C44" s="100"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="108" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="23"/>
@@ -3399,32 +3399,32 @@
       <c r="T44" s="4"/>
       <c r="U44" s="32"/>
       <c r="V44" s="33"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="127"/>
-      <c r="AC44" s="82"/>
-      <c r="AD44" s="86"/>
-      <c r="AE44" s="84"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="86"/>
-      <c r="AH44" s="84"/>
-      <c r="AI44" s="85"/>
-      <c r="AJ44" s="86"/>
-      <c r="AK44" s="84"/>
-      <c r="AL44" s="85"/>
-      <c r="AM44" s="86"/>
-      <c r="AN44" s="84"/>
-      <c r="AO44" s="85"/>
-      <c r="AP44" s="86"/>
+      <c r="W44" s="115"/>
+      <c r="X44" s="115"/>
+      <c r="Y44" s="115"/>
+      <c r="Z44" s="115"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="64"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="64"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="64"/>
+      <c r="AO44" s="65"/>
+      <c r="AP44" s="66"/>
     </row>
     <row r="45" spans="2:42" ht="15.75" thickBot="1">
-      <c r="C45" s="47"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="122"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="28"/>
       <c r="H45" s="29"/>
       <c r="I45" s="30"/>
@@ -3439,66 +3439,66 @@
       <c r="R45" s="28"/>
       <c r="S45" s="29"/>
       <c r="T45" s="30"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="125"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="58"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="57"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="59"/>
-      <c r="AN45" s="57"/>
-      <c r="AO45" s="58"/>
-      <c r="AP45" s="59"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="79"/>
+      <c r="W45" s="115"/>
+      <c r="X45" s="115"/>
+      <c r="Y45" s="115"/>
+      <c r="Z45" s="115"/>
+      <c r="AA45" s="116"/>
+      <c r="AB45" s="93"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="43"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="43"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="44"/>
     </row>
     <row r="46" spans="2:42">
-      <c r="C46" s="47"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="80" t="s">
+      <c r="C46" s="100"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="123"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="93"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="115"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="115"/>
+      <c r="AA46" s="116"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="53"/>
+      <c r="AE46" s="38"/>
       <c r="AF46" s="25"/>
       <c r="AG46" s="26"/>
-      <c r="AH46" s="53"/>
+      <c r="AH46" s="38"/>
       <c r="AI46" s="25"/>
-      <c r="AJ46" s="126"/>
+      <c r="AJ46" s="94"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="5"/>
@@ -3507,31 +3507,31 @@
       <c r="AP46" s="5"/>
     </row>
     <row r="47" spans="2:42" ht="15.75" thickBot="1">
-      <c r="C47" s="47"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="93"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="115"/>
+      <c r="X47" s="115"/>
+      <c r="Y47" s="115"/>
+      <c r="Z47" s="115"/>
+      <c r="AA47" s="116"/>
       <c r="AB47" s="30"/>
       <c r="AC47" s="28"/>
       <c r="AD47" s="29"/>
@@ -3549,9 +3549,9 @@
       <c r="AP47" s="29"/>
     </row>
     <row r="48" spans="2:42">
-      <c r="C48" s="47"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="94" t="s">
+      <c r="C48" s="100"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="108" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="23"/>
@@ -3571,73 +3571,73 @@
       <c r="T48" s="4"/>
       <c r="U48" s="32"/>
       <c r="V48" s="33"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="93"/>
-      <c r="AB48" s="124"/>
-      <c r="AC48" s="85"/>
-      <c r="AD48" s="86"/>
-      <c r="AE48" s="84"/>
-      <c r="AF48" s="85"/>
-      <c r="AG48" s="86"/>
-      <c r="AH48" s="112"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="83"/>
-      <c r="AK48" s="84"/>
-      <c r="AL48" s="85"/>
-      <c r="AM48" s="86"/>
-      <c r="AN48" s="84"/>
-      <c r="AO48" s="85"/>
-      <c r="AP48" s="86"/>
+      <c r="W48" s="115"/>
+      <c r="X48" s="115"/>
+      <c r="Y48" s="115"/>
+      <c r="Z48" s="115"/>
+      <c r="AA48" s="116"/>
+      <c r="AB48" s="92"/>
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="64"/>
+      <c r="AF48" s="65"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="62"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="64"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="64"/>
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="66"/>
     </row>
     <row r="49" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C49" s="47"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43"/>
-      <c r="AA49" s="93"/>
-      <c r="AB49" s="125"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="59"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="58"/>
-      <c r="AJ49" s="59"/>
-      <c r="AK49" s="57"/>
-      <c r="AL49" s="58"/>
-      <c r="AM49" s="59"/>
-      <c r="AN49" s="57"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="59"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="115"/>
+      <c r="X49" s="115"/>
+      <c r="Y49" s="115"/>
+      <c r="Z49" s="115"/>
+      <c r="AA49" s="116"/>
+      <c r="AB49" s="93"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="43"/>
+      <c r="AP49" s="44"/>
     </row>
     <row r="50" spans="3:42">
-      <c r="C50" s="47"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="94" t="s">
+      <c r="C50" s="100"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="108" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="23"/>
@@ -3657,11 +3657,11 @@
       <c r="T50" s="4"/>
       <c r="U50" s="32"/>
       <c r="V50" s="33"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="93"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="115"/>
+      <c r="Y50" s="115"/>
+      <c r="Z50" s="115"/>
+      <c r="AA50" s="116"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="5"/>
@@ -3671,7 +3671,7 @@
       <c r="AH50" s="4"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="5"/>
-      <c r="AK50" s="53"/>
+      <c r="AK50" s="38"/>
       <c r="AL50" s="25"/>
       <c r="AM50" s="26"/>
       <c r="AN50" s="4"/>
@@ -3679,31 +3679,31 @@
       <c r="AP50" s="5"/>
     </row>
     <row r="51" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C51" s="48"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="60"/>
-      <c r="V51" s="61"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="93"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="115"/>
+      <c r="Y51" s="115"/>
+      <c r="Z51" s="115"/>
+      <c r="AA51" s="116"/>
       <c r="AB51" s="30"/>
       <c r="AC51" s="28"/>
       <c r="AD51" s="29"/>
@@ -3721,11 +3721,11 @@
       <c r="AP51" s="29"/>
     </row>
     <row r="52" spans="3:42" ht="15.75" thickTop="1">
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="94" t="s">
+      <c r="D52" s="103"/>
+      <c r="E52" s="108" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="23"/>
@@ -3745,73 +3745,73 @@
       <c r="T52" s="4"/>
       <c r="U52" s="32"/>
       <c r="V52" s="33"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="93"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="85"/>
-      <c r="AD52" s="86"/>
-      <c r="AE52" s="84"/>
-      <c r="AF52" s="85"/>
-      <c r="AG52" s="86"/>
-      <c r="AH52" s="84"/>
-      <c r="AI52" s="85"/>
-      <c r="AJ52" s="86"/>
-      <c r="AK52" s="112"/>
-      <c r="AL52" s="82"/>
-      <c r="AM52" s="83"/>
-      <c r="AN52" s="84"/>
-      <c r="AO52" s="85"/>
-      <c r="AP52" s="86"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="115"/>
+      <c r="Y52" s="115"/>
+      <c r="Z52" s="115"/>
+      <c r="AA52" s="116"/>
+      <c r="AB52" s="92"/>
+      <c r="AC52" s="65"/>
+      <c r="AD52" s="66"/>
+      <c r="AE52" s="64"/>
+      <c r="AF52" s="65"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="65"/>
+      <c r="AJ52" s="66"/>
+      <c r="AK52" s="80"/>
+      <c r="AL52" s="62"/>
+      <c r="AM52" s="63"/>
+      <c r="AN52" s="64"/>
+      <c r="AO52" s="65"/>
+      <c r="AP52" s="66"/>
     </row>
     <row r="53" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C53" s="50"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="93"/>
-      <c r="AB53" s="125"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="59"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="59"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="58"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="57"/>
-      <c r="AL53" s="58"/>
-      <c r="AM53" s="59"/>
-      <c r="AN53" s="57"/>
-      <c r="AO53" s="58"/>
-      <c r="AP53" s="59"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="115"/>
+      <c r="Y53" s="115"/>
+      <c r="Z53" s="115"/>
+      <c r="AA53" s="116"/>
+      <c r="AB53" s="93"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="44"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="43"/>
+      <c r="AJ53" s="44"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="43"/>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="42"/>
+      <c r="AO53" s="43"/>
+      <c r="AP53" s="44"/>
     </row>
     <row r="54" spans="3:42">
-      <c r="C54" s="50"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="94" t="s">
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="108" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="23"/>
@@ -3831,11 +3831,11 @@
       <c r="T54" s="4"/>
       <c r="U54" s="32"/>
       <c r="V54" s="33"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="93"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="115"/>
+      <c r="Y54" s="115"/>
+      <c r="Z54" s="115"/>
+      <c r="AA54" s="116"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="5"/>
@@ -3845,39 +3845,39 @@
       <c r="AH54" s="4"/>
       <c r="AI54" s="25"/>
       <c r="AJ54" s="26"/>
-      <c r="AK54" s="53"/>
+      <c r="AK54" s="38"/>
       <c r="AL54" s="25"/>
-      <c r="AM54" s="126"/>
+      <c r="AM54" s="94"/>
       <c r="AN54" s="4"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="5"/>
     </row>
     <row r="55" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C55" s="50"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="60"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43"/>
-      <c r="AA55" s="93"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="115"/>
+      <c r="Y55" s="115"/>
+      <c r="Z55" s="115"/>
+      <c r="AA55" s="116"/>
       <c r="AB55" s="30"/>
       <c r="AC55" s="28"/>
       <c r="AD55" s="29"/>
@@ -3895,9 +3895,9 @@
       <c r="AP55" s="29"/>
     </row>
     <row r="56" spans="3:42">
-      <c r="C56" s="50"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="94" t="s">
+      <c r="C56" s="104"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="108" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="23"/>
@@ -3917,73 +3917,73 @@
       <c r="T56" s="4"/>
       <c r="U56" s="32"/>
       <c r="V56" s="33"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43"/>
-      <c r="Z56" s="43"/>
-      <c r="AA56" s="93"/>
-      <c r="AB56" s="124"/>
-      <c r="AC56" s="85"/>
-      <c r="AD56" s="86"/>
-      <c r="AE56" s="84"/>
-      <c r="AF56" s="85"/>
-      <c r="AG56" s="86"/>
-      <c r="AH56" s="84"/>
-      <c r="AI56" s="85"/>
-      <c r="AJ56" s="86"/>
-      <c r="AK56" s="84"/>
-      <c r="AL56" s="85"/>
-      <c r="AM56" s="86"/>
-      <c r="AN56" s="112"/>
-      <c r="AO56" s="82"/>
-      <c r="AP56" s="83"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="115"/>
+      <c r="Y56" s="115"/>
+      <c r="Z56" s="115"/>
+      <c r="AA56" s="116"/>
+      <c r="AB56" s="92"/>
+      <c r="AC56" s="65"/>
+      <c r="AD56" s="66"/>
+      <c r="AE56" s="64"/>
+      <c r="AF56" s="65"/>
+      <c r="AG56" s="66"/>
+      <c r="AH56" s="64"/>
+      <c r="AI56" s="65"/>
+      <c r="AJ56" s="66"/>
+      <c r="AK56" s="64"/>
+      <c r="AL56" s="65"/>
+      <c r="AM56" s="66"/>
+      <c r="AN56" s="80"/>
+      <c r="AO56" s="62"/>
+      <c r="AP56" s="63"/>
     </row>
     <row r="57" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C57" s="50"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="60"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43"/>
-      <c r="AA57" s="93"/>
-      <c r="AB57" s="125"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="59"/>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="58"/>
-      <c r="AG57" s="59"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="58"/>
-      <c r="AJ57" s="59"/>
-      <c r="AK57" s="57"/>
-      <c r="AL57" s="58"/>
-      <c r="AM57" s="59"/>
-      <c r="AN57" s="57"/>
-      <c r="AO57" s="58"/>
-      <c r="AP57" s="59"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="115"/>
+      <c r="Y57" s="115"/>
+      <c r="Z57" s="115"/>
+      <c r="AA57" s="116"/>
+      <c r="AB57" s="93"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="42"/>
+      <c r="AI57" s="43"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="42"/>
+      <c r="AL57" s="43"/>
+      <c r="AM57" s="44"/>
+      <c r="AN57" s="42"/>
+      <c r="AO57" s="43"/>
+      <c r="AP57" s="44"/>
     </row>
     <row r="58" spans="3:42">
-      <c r="C58" s="50"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="94" t="s">
+      <c r="C58" s="104"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="108" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="23"/>
@@ -4003,11 +4003,11 @@
       <c r="T58" s="4"/>
       <c r="U58" s="32"/>
       <c r="V58" s="33"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="93"/>
+      <c r="W58" s="114"/>
+      <c r="X58" s="115"/>
+      <c r="Y58" s="115"/>
+      <c r="Z58" s="115"/>
+      <c r="AA58" s="116"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="5"/>
@@ -4020,36 +4020,36 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="5"/>
-      <c r="AN58" s="53"/>
+      <c r="AN58" s="38"/>
       <c r="AO58" s="25"/>
-      <c r="AP58" s="126"/>
+      <c r="AP58" s="94"/>
     </row>
     <row r="59" spans="3:42" ht="15.75" thickBot="1">
-      <c r="C59" s="51"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="60"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="99"/>
-      <c r="X59" s="100"/>
-      <c r="Y59" s="100"/>
-      <c r="Z59" s="100"/>
-      <c r="AA59" s="101"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="120"/>
+      <c r="X59" s="121"/>
+      <c r="Y59" s="121"/>
+      <c r="Z59" s="121"/>
+      <c r="AA59" s="122"/>
       <c r="AB59" s="19"/>
       <c r="AC59" s="17"/>
       <c r="AD59" s="18"/>
@@ -4075,6 +4075,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="W6:AA32"/>
+    <mergeCell ref="W33:AA59"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="C6:D21"/>
     <mergeCell ref="C22:D37"/>
     <mergeCell ref="C38:D51"/>
@@ -4091,25 +4110,6 @@
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="W6:AA32"/>
-    <mergeCell ref="W33:AA59"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="W5:AA5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
